--- a/tel/調度資料.xlsx
+++ b/tel/調度資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A86CE4-ED42-43BB-B484-684A419F79B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D40E9-196A-40D9-B537-26E43DC92784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="-108" windowWidth="22368" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1126">
   <si>
     <t>分機號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4048,6 +4048,18 @@
   </si>
   <si>
     <t>E2 - 239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">330Q - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330N - 126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5/T6 變電站 (#2主變旁) 電梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4055,7 +4067,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5539,11 +5551,11 @@
   <dimension ref="A1:K318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="19" bestFit="1" customWidth="1"/>
@@ -5555,7 +5567,7 @@
     <col min="10" max="10" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5584,7 +5596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="32.4">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>1066</v>
       </c>
@@ -5606,7 +5618,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="32.4">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>1065</v>
       </c>
@@ -5630,7 +5642,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="32.4">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>1064</v>
       </c>
@@ -5654,7 +5666,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="32.4">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>1063</v>
       </c>
@@ -5675,7 +5687,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.4">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>1062</v>
       </c>
@@ -5702,7 +5714,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.4">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>300</v>
       </c>
@@ -5730,7 +5742,7 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1">
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>301</v>
       </c>
@@ -5756,7 +5768,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>302</v>
       </c>
@@ -5774,7 +5786,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1">
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>303</v>
       </c>
@@ -5800,7 +5812,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1">
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>304</v>
       </c>
@@ -5826,7 +5838,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1">
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>305</v>
       </c>
@@ -5850,7 +5862,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>306</v>
       </c>
@@ -5876,7 +5888,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>307</v>
       </c>
@@ -5902,7 +5914,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>308</v>
       </c>
@@ -5920,7 +5932,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1">
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>309</v>
       </c>
@@ -5948,7 +5960,7 @@
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1">
+    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>310</v>
       </c>
@@ -5976,7 +5988,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1">
+    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>311</v>
       </c>
@@ -6002,7 +6014,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="32.4">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>312</v>
       </c>
@@ -6032,7 +6044,7 @@
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1">
+    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>313</v>
       </c>
@@ -6060,7 +6072,7 @@
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1">
+    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>314</v>
       </c>
@@ -6088,7 +6100,7 @@
       </c>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1">
+    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>315</v>
       </c>
@@ -6116,7 +6128,7 @@
       </c>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1">
+    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>316</v>
       </c>
@@ -6144,7 +6156,7 @@
       </c>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1">
+    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>317</v>
       </c>
@@ -6174,7 +6186,7 @@
       </c>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1">
+    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>318</v>
       </c>
@@ -6202,7 +6214,7 @@
       </c>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1">
+    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>319</v>
       </c>
@@ -6230,7 +6242,7 @@
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1">
+    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>320</v>
       </c>
@@ -6258,7 +6270,7 @@
       </c>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1">
+    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>321</v>
       </c>
@@ -6286,7 +6298,7 @@
       </c>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1">
+    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>322</v>
       </c>
@@ -6316,7 +6328,7 @@
       </c>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1">
+    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>323</v>
       </c>
@@ -6346,7 +6358,7 @@
       </c>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1">
+    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>324</v>
       </c>
@@ -6374,7 +6386,7 @@
       </c>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1">
+    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>325</v>
       </c>
@@ -6392,7 +6404,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1">
+    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>326</v>
       </c>
@@ -6422,7 +6434,7 @@
       </c>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1">
+    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>327</v>
       </c>
@@ -6440,7 +6452,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" s="4" customFormat="1">
+    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>328</v>
       </c>
@@ -6458,7 +6470,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1">
+    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>329</v>
       </c>
@@ -6484,7 +6496,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1">
+    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>330</v>
       </c>
@@ -6512,7 +6524,7 @@
       </c>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1">
+    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>331</v>
       </c>
@@ -6540,7 +6552,7 @@
       </c>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1">
+    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>332</v>
       </c>
@@ -6566,7 +6578,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1">
+    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>333</v>
       </c>
@@ -6592,7 +6604,7 @@
       </c>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1">
+    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>334</v>
       </c>
@@ -6610,7 +6622,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="16">
         <v>335</v>
       </c>
@@ -6638,7 +6650,7 @@
       </c>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="16">
         <v>336</v>
       </c>
@@ -6664,7 +6676,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>337</v>
       </c>
@@ -6692,7 +6704,7 @@
       </c>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>338</v>
       </c>
@@ -6720,7 +6732,7 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>339</v>
       </c>
@@ -6748,7 +6760,7 @@
       </c>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>340</v>
       </c>
@@ -6766,7 +6778,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>341</v>
       </c>
@@ -6784,7 +6796,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>342</v>
       </c>
@@ -6802,7 +6814,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>343</v>
       </c>
@@ -6820,7 +6832,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>344</v>
       </c>
@@ -6838,7 +6850,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>345</v>
       </c>
@@ -6856,7 +6868,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>346</v>
       </c>
@@ -6874,7 +6886,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>347</v>
       </c>
@@ -6892,7 +6904,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>348</v>
       </c>
@@ -6920,7 +6932,7 @@
       </c>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>349</v>
       </c>
@@ -6948,7 +6960,7 @@
       </c>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>350</v>
       </c>
@@ -6974,7 +6986,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>351</v>
       </c>
@@ -6992,7 +7004,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" ht="32.4">
+    <row r="59" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>352</v>
       </c>
@@ -7018,7 +7030,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>353</v>
       </c>
@@ -7036,7 +7048,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>354</v>
       </c>
@@ -7056,7 +7068,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>355</v>
       </c>
@@ -7074,7 +7086,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>356</v>
       </c>
@@ -7102,7 +7114,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>357</v>
       </c>
@@ -7130,7 +7142,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>358</v>
       </c>
@@ -7158,7 +7170,7 @@
       </c>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>359</v>
       </c>
@@ -7186,7 +7198,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>360</v>
       </c>
@@ -7204,7 +7216,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>361</v>
       </c>
@@ -7222,7 +7234,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>362</v>
       </c>
@@ -7240,7 +7252,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>363</v>
       </c>
@@ -7268,7 +7280,7 @@
       </c>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>364</v>
       </c>
@@ -7286,7 +7298,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>365</v>
       </c>
@@ -7304,7 +7316,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>366</v>
       </c>
@@ -7332,7 +7344,7 @@
       </c>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>367</v>
       </c>
@@ -7360,7 +7372,7 @@
       </c>
       <c r="J74" s="23"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>368</v>
       </c>
@@ -7390,7 +7402,7 @@
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>369</v>
       </c>
@@ -7418,7 +7430,7 @@
       </c>
       <c r="J76" s="23"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>370</v>
       </c>
@@ -7436,7 +7448,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>371</v>
       </c>
@@ -7462,7 +7474,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>372</v>
       </c>
@@ -7492,7 +7504,7 @@
       </c>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>373</v>
       </c>
@@ -7522,7 +7534,7 @@
       </c>
       <c r="J80" s="23"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>374</v>
       </c>
@@ -7552,7 +7564,7 @@
       </c>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>375</v>
       </c>
@@ -7580,7 +7592,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="23"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>376</v>
       </c>
@@ -7608,7 +7620,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="23"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>377</v>
       </c>
@@ -7636,7 +7648,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>378</v>
       </c>
@@ -7654,7 +7666,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>379</v>
       </c>
@@ -7678,7 +7690,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="23"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>380</v>
       </c>
@@ -7704,7 +7716,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>381</v>
       </c>
@@ -7730,7 +7742,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>382</v>
       </c>
@@ -7758,7 +7770,7 @@
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>383</v>
       </c>
@@ -7784,7 +7796,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>384</v>
       </c>
@@ -7812,7 +7824,7 @@
       </c>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>385</v>
       </c>
@@ -7838,7 +7850,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>386</v>
       </c>
@@ -7856,7 +7868,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>387</v>
       </c>
@@ -7882,7 +7894,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>388</v>
       </c>
@@ -7910,7 +7922,7 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>389</v>
       </c>
@@ -7928,7 +7940,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>390</v>
       </c>
@@ -7956,7 +7968,7 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>391</v>
       </c>
@@ -7984,7 +7996,7 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>392</v>
       </c>
@@ -8012,7 +8024,7 @@
       </c>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>393</v>
       </c>
@@ -8040,7 +8052,7 @@
       </c>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>394</v>
       </c>
@@ -8066,7 +8078,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="23"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>395</v>
       </c>
@@ -8086,7 +8098,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="23"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>396</v>
       </c>
@@ -8112,7 +8124,7 @@
       <c r="I103" s="16"/>
       <c r="J103" s="23"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>397</v>
       </c>
@@ -8130,7 +8142,7 @@
       <c r="I104" s="16"/>
       <c r="J104" s="23"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>398</v>
       </c>
@@ -8156,7 +8168,7 @@
       <c r="I105" s="16"/>
       <c r="J105" s="23"/>
     </row>
-    <row r="106" spans="1:10" ht="32.4">
+    <row r="106" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>399</v>
       </c>
@@ -8184,7 +8196,7 @@
       </c>
       <c r="J106" s="23"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>400</v>
       </c>
@@ -8210,7 +8222,7 @@
       <c r="I107" s="16"/>
       <c r="J107" s="23"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>401</v>
       </c>
@@ -8236,7 +8248,7 @@
       <c r="I108" s="16"/>
       <c r="J108" s="23"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="16">
         <v>402</v>
       </c>
@@ -8262,7 +8274,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="23"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>403</v>
       </c>
@@ -8288,7 +8300,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="23"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="16">
         <v>404</v>
       </c>
@@ -8306,7 +8318,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="23"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="16">
         <v>405</v>
       </c>
@@ -8324,7 +8336,7 @@
       <c r="I112" s="16"/>
       <c r="J112" s="23"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>406</v>
       </c>
@@ -8350,7 +8362,7 @@
       <c r="I113" s="16"/>
       <c r="J113" s="23"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>407</v>
       </c>
@@ -8378,7 +8390,7 @@
       </c>
       <c r="J114" s="23"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>408</v>
       </c>
@@ -8404,7 +8416,7 @@
       <c r="I115" s="16"/>
       <c r="J115" s="23"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>409</v>
       </c>
@@ -8430,7 +8442,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="23"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="16">
         <v>410</v>
       </c>
@@ -8456,7 +8468,7 @@
       <c r="I117" s="16"/>
       <c r="J117" s="23"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="16">
         <v>411</v>
       </c>
@@ -8482,7 +8494,7 @@
       <c r="I118" s="16"/>
       <c r="J118" s="23"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>412</v>
       </c>
@@ -8508,7 +8520,7 @@
       <c r="I119" s="16"/>
       <c r="J119" s="23"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>413</v>
       </c>
@@ -8534,7 +8546,7 @@
       <c r="I120" s="16"/>
       <c r="J120" s="23"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>414</v>
       </c>
@@ -8560,7 +8572,7 @@
       <c r="I121" s="16"/>
       <c r="J121" s="23"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="16">
         <v>415</v>
       </c>
@@ -8586,7 +8598,7 @@
       <c r="I122" s="16"/>
       <c r="J122" s="23"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="16">
         <v>416</v>
       </c>
@@ -8612,7 +8624,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="23"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="16">
         <v>417</v>
       </c>
@@ -8638,7 +8650,7 @@
       <c r="I124" s="16"/>
       <c r="J124" s="23"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>418</v>
       </c>
@@ -8666,7 +8678,7 @@
       </c>
       <c r="J125" s="23"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>419</v>
       </c>
@@ -8692,7 +8704,7 @@
       <c r="I126" s="16"/>
       <c r="J126" s="23"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>420</v>
       </c>
@@ -8718,7 +8730,7 @@
       <c r="I127" s="16"/>
       <c r="J127" s="23"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="16">
         <v>421</v>
       </c>
@@ -8744,7 +8756,7 @@
       <c r="I128" s="16"/>
       <c r="J128" s="23"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>422</v>
       </c>
@@ -8772,7 +8784,7 @@
       </c>
       <c r="J129" s="23"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>423</v>
       </c>
@@ -8798,7 +8810,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="23"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>424</v>
       </c>
@@ -8826,7 +8838,7 @@
       <c r="I131" s="16"/>
       <c r="J131" s="23"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="16">
         <v>425</v>
       </c>
@@ -8854,7 +8866,7 @@
       <c r="I132" s="16"/>
       <c r="J132" s="23"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>426</v>
       </c>
@@ -8882,7 +8894,7 @@
       <c r="I133" s="16"/>
       <c r="J133" s="23"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>427</v>
       </c>
@@ -8908,7 +8920,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="23"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>428</v>
       </c>
@@ -8934,7 +8946,7 @@
       <c r="I135" s="16"/>
       <c r="J135" s="23"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>429</v>
       </c>
@@ -8960,7 +8972,7 @@
       <c r="I136" s="16"/>
       <c r="J136" s="23"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>430</v>
       </c>
@@ -8986,7 +8998,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="23"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>431</v>
       </c>
@@ -9012,7 +9024,7 @@
       <c r="I138" s="16"/>
       <c r="J138" s="23"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>432</v>
       </c>
@@ -9040,7 +9052,7 @@
       </c>
       <c r="J139" s="23"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="16">
         <v>433</v>
       </c>
@@ -9066,7 +9078,7 @@
       <c r="I140" s="16"/>
       <c r="J140" s="23"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>434</v>
       </c>
@@ -9094,7 +9106,7 @@
       </c>
       <c r="J141" s="23"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="16">
         <v>435</v>
       </c>
@@ -9120,7 +9132,7 @@
       <c r="I142" s="16"/>
       <c r="J142" s="23"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="16">
         <v>436</v>
       </c>
@@ -9148,7 +9160,7 @@
       <c r="I143" s="16"/>
       <c r="J143" s="23"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="16">
         <v>437</v>
       </c>
@@ -9176,7 +9188,7 @@
       </c>
       <c r="J144" s="23"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="16">
         <v>438</v>
       </c>
@@ -9194,7 +9206,7 @@
       <c r="I145" s="16"/>
       <c r="J145" s="23"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="16">
         <v>439</v>
       </c>
@@ -9220,7 +9232,7 @@
       <c r="I146" s="16"/>
       <c r="J146" s="23"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>440</v>
       </c>
@@ -9246,7 +9258,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="23"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>441</v>
       </c>
@@ -9272,7 +9284,7 @@
       <c r="I148" s="16"/>
       <c r="J148" s="23"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="16">
         <v>442</v>
       </c>
@@ -9300,7 +9312,7 @@
       <c r="I149" s="16"/>
       <c r="J149" s="23"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="16">
         <v>443</v>
       </c>
@@ -9330,7 +9342,7 @@
       </c>
       <c r="J150" s="23"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>444</v>
       </c>
@@ -9348,7 +9360,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="23"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>445</v>
       </c>
@@ -9376,7 +9388,7 @@
       <c r="I152" s="16"/>
       <c r="J152" s="23"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>446</v>
       </c>
@@ -9404,7 +9416,7 @@
       </c>
       <c r="J153" s="23"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>447</v>
       </c>
@@ -9432,7 +9444,7 @@
       </c>
       <c r="J154" s="23"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>448</v>
       </c>
@@ -9458,7 +9470,7 @@
       <c r="I155" s="16"/>
       <c r="J155" s="23"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>449</v>
       </c>
@@ -9488,7 +9500,7 @@
       </c>
       <c r="J156" s="23"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>450</v>
       </c>
@@ -9516,7 +9528,7 @@
       </c>
       <c r="J157" s="23"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>451</v>
       </c>
@@ -9542,7 +9554,7 @@
       <c r="I158" s="16"/>
       <c r="J158" s="23"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>452</v>
       </c>
@@ -9568,7 +9580,7 @@
       <c r="I159" s="16"/>
       <c r="J159" s="23"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="16">
         <v>453</v>
       </c>
@@ -9594,7 +9606,7 @@
       <c r="I160" s="16"/>
       <c r="J160" s="23"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>454</v>
       </c>
@@ -9612,7 +9624,7 @@
       <c r="I161" s="16"/>
       <c r="J161" s="23"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>455</v>
       </c>
@@ -9634,7 +9646,7 @@
       <c r="I162" s="16"/>
       <c r="J162" s="23"/>
     </row>
-    <row r="163" spans="1:10" ht="32.4">
+    <row r="163" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>456</v>
       </c>
@@ -9660,7 +9672,7 @@
       <c r="I163" s="16"/>
       <c r="J163" s="23"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>457</v>
       </c>
@@ -9688,7 +9700,7 @@
       </c>
       <c r="J164" s="23"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>458</v>
       </c>
@@ -9714,7 +9726,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="23"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>459</v>
       </c>
@@ -9742,7 +9754,7 @@
       </c>
       <c r="J166" s="23"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>460</v>
       </c>
@@ -9770,7 +9782,7 @@
       </c>
       <c r="J167" s="23"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>461</v>
       </c>
@@ -9798,7 +9810,7 @@
       </c>
       <c r="J168" s="23"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>462</v>
       </c>
@@ -9824,7 +9836,7 @@
       <c r="I169" s="16"/>
       <c r="J169" s="23"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>463</v>
       </c>
@@ -9852,7 +9864,7 @@
       </c>
       <c r="J170" s="23"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>464</v>
       </c>
@@ -9878,7 +9890,7 @@
       <c r="I171" s="16"/>
       <c r="J171" s="23"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="16">
         <v>465</v>
       </c>
@@ -9904,7 +9916,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="23"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="16">
         <v>466</v>
       </c>
@@ -9932,7 +9944,7 @@
       </c>
       <c r="J173" s="23"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>467</v>
       </c>
@@ -9960,7 +9972,7 @@
       </c>
       <c r="J174" s="23"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>468</v>
       </c>
@@ -9970,15 +9982,25 @@
       <c r="C175" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="16"/>
+      <c r="D175" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H175" s="16">
+        <v>0</v>
+      </c>
       <c r="I175" s="16"/>
       <c r="J175" s="23"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>469</v>
       </c>
@@ -9996,7 +10018,7 @@
       <c r="I176" s="16"/>
       <c r="J176" s="23"/>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="16">
         <v>470</v>
       </c>
@@ -10014,7 +10036,7 @@
       <c r="I177" s="16"/>
       <c r="J177" s="23"/>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="16">
         <v>471</v>
       </c>
@@ -10032,7 +10054,7 @@
       <c r="I178" s="16"/>
       <c r="J178" s="23"/>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>472</v>
       </c>
@@ -10050,7 +10072,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="23"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="16">
         <v>473</v>
       </c>
@@ -10068,7 +10090,7 @@
       <c r="I180" s="16"/>
       <c r="J180" s="23"/>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="16">
         <v>474</v>
       </c>
@@ -10086,7 +10108,7 @@
       <c r="I181" s="16"/>
       <c r="J181" s="23"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>475</v>
       </c>
@@ -10104,7 +10126,7 @@
       <c r="I182" s="16"/>
       <c r="J182" s="23"/>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>476</v>
       </c>
@@ -10122,7 +10144,7 @@
       <c r="I183" s="16"/>
       <c r="J183" s="23"/>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>477</v>
       </c>
@@ -10140,7 +10162,7 @@
       <c r="I184" s="16"/>
       <c r="J184" s="23"/>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>478</v>
       </c>
@@ -10158,7 +10180,7 @@
       <c r="I185" s="16"/>
       <c r="J185" s="23"/>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="16">
         <v>479</v>
       </c>
@@ -10176,7 +10198,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="23"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>480</v>
       </c>
@@ -10194,7 +10216,7 @@
       <c r="I187" s="16"/>
       <c r="J187" s="23"/>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>481</v>
       </c>
@@ -10212,7 +10234,7 @@
       <c r="I188" s="16"/>
       <c r="J188" s="23"/>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="16">
         <v>482</v>
       </c>
@@ -10230,7 +10252,7 @@
       <c r="I189" s="16"/>
       <c r="J189" s="23"/>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="16">
         <v>483</v>
       </c>
@@ -10248,7 +10270,7 @@
       <c r="I190" s="16"/>
       <c r="J190" s="23"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>484</v>
       </c>
@@ -10266,7 +10288,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="23"/>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>485</v>
       </c>
@@ -10284,7 +10306,7 @@
       <c r="I192" s="16"/>
       <c r="J192" s="23"/>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>486</v>
       </c>
@@ -10302,7 +10324,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="23"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>487</v>
       </c>
@@ -10320,7 +10342,7 @@
       <c r="I194" s="16"/>
       <c r="J194" s="23"/>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>488</v>
       </c>
@@ -10338,7 +10360,7 @@
       <c r="I195" s="16"/>
       <c r="J195" s="23"/>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>489</v>
       </c>
@@ -10356,7 +10378,7 @@
       <c r="I196" s="16"/>
       <c r="J196" s="23"/>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>490</v>
       </c>
@@ -10374,7 +10396,7 @@
       <c r="I197" s="16"/>
       <c r="J197" s="23"/>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>491</v>
       </c>
@@ -10392,7 +10414,7 @@
       <c r="I198" s="16"/>
       <c r="J198" s="23"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>492</v>
       </c>
@@ -10410,7 +10432,7 @@
       <c r="I199" s="16"/>
       <c r="J199" s="23"/>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>493</v>
       </c>
@@ -10428,7 +10450,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="23"/>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>494</v>
       </c>
@@ -10446,7 +10468,7 @@
       <c r="I201" s="16"/>
       <c r="J201" s="23"/>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="16">
         <v>495</v>
       </c>
@@ -10464,7 +10486,7 @@
       <c r="I202" s="16"/>
       <c r="J202" s="23"/>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>496</v>
       </c>
@@ -10482,7 +10504,7 @@
       <c r="I203" s="16"/>
       <c r="J203" s="23"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>497</v>
       </c>
@@ -10502,7 +10524,7 @@
       <c r="I204" s="32"/>
       <c r="J204" s="23"/>
     </row>
-    <row r="205" spans="1:10" ht="32.4">
+    <row r="205" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>498</v>
       </c>
@@ -10528,7 +10550,7 @@
       <c r="I205" s="16"/>
       <c r="J205" s="23"/>
     </row>
-    <row r="206" spans="1:10" ht="32.4">
+    <row r="206" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>499</v>
       </c>
@@ -10554,7 +10576,7 @@
       <c r="I206" s="16"/>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="1:10" ht="32.4">
+    <row r="207" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>500</v>
       </c>
@@ -10580,7 +10602,7 @@
       <c r="I207" s="16"/>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="1:10" ht="32.4">
+    <row r="208" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>501</v>
       </c>
@@ -10606,7 +10628,7 @@
       <c r="I208" s="16"/>
       <c r="J208" s="23"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="16">
         <v>502</v>
       </c>
@@ -10632,7 +10654,7 @@
       <c r="I209" s="16"/>
       <c r="J209" s="23"/>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="16">
         <v>503</v>
       </c>
@@ -10658,7 +10680,7 @@
       <c r="I210" s="16"/>
       <c r="J210" s="23"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>504</v>
       </c>
@@ -10684,7 +10706,7 @@
       <c r="I211" s="16"/>
       <c r="J211" s="23"/>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="16">
         <v>505</v>
       </c>
@@ -10710,7 +10732,7 @@
       <c r="I212" s="16"/>
       <c r="J212" s="23"/>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="16">
         <v>506</v>
       </c>
@@ -10736,7 +10758,7 @@
       <c r="I213" s="16"/>
       <c r="J213" s="23"/>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>507</v>
       </c>
@@ -10762,7 +10784,7 @@
       <c r="I214" s="16"/>
       <c r="J214" s="23"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>508</v>
       </c>
@@ -10788,7 +10810,7 @@
       <c r="I215" s="16"/>
       <c r="J215" s="23"/>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="16">
         <v>509</v>
       </c>
@@ -10814,7 +10836,7 @@
       <c r="I216" s="16"/>
       <c r="J216" s="23"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>510</v>
       </c>
@@ -10840,7 +10862,7 @@
       <c r="I217" s="16"/>
       <c r="J217" s="23"/>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>511</v>
       </c>
@@ -10866,7 +10888,7 @@
       <c r="I218" s="16"/>
       <c r="J218" s="23"/>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="16">
         <v>512</v>
       </c>
@@ -10892,7 +10914,7 @@
       <c r="I219" s="16"/>
       <c r="J219" s="23"/>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>513</v>
       </c>
@@ -10918,7 +10940,7 @@
       <c r="I220" s="16"/>
       <c r="J220" s="23"/>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>514</v>
       </c>
@@ -10944,7 +10966,7 @@
       <c r="I221" s="16"/>
       <c r="J221" s="23"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>515</v>
       </c>
@@ -10970,7 +10992,7 @@
       <c r="I222" s="16"/>
       <c r="J222" s="23"/>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="16">
         <v>516</v>
       </c>
@@ -10996,7 +11018,7 @@
       <c r="I223" s="16"/>
       <c r="J223" s="23"/>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>517</v>
       </c>
@@ -11022,7 +11044,7 @@
       <c r="I224" s="16"/>
       <c r="J224" s="23"/>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>518</v>
       </c>
@@ -11048,7 +11070,7 @@
       <c r="I225" s="16"/>
       <c r="J225" s="23"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="16">
         <v>519</v>
       </c>
@@ -11074,7 +11096,7 @@
       <c r="I226" s="16"/>
       <c r="J226" s="23"/>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>520</v>
       </c>
@@ -11092,7 +11114,7 @@
       <c r="I227" s="16"/>
       <c r="J227" s="23"/>
     </row>
-    <row r="228" spans="1:10" ht="32.4">
+    <row r="228" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>521</v>
       </c>
@@ -11118,7 +11140,7 @@
       <c r="I228" s="16"/>
       <c r="J228" s="23"/>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="16">
         <v>522</v>
       </c>
@@ -11144,7 +11166,7 @@
       <c r="I229" s="16"/>
       <c r="J229" s="23"/>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="16">
         <v>523</v>
       </c>
@@ -11170,7 +11192,7 @@
       <c r="I230" s="16"/>
       <c r="J230" s="23"/>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="16">
         <v>524</v>
       </c>
@@ -11196,7 +11218,7 @@
       <c r="I231" s="16"/>
       <c r="J231" s="23"/>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="16">
         <v>525</v>
       </c>
@@ -11214,7 +11236,7 @@
       <c r="I232" s="16"/>
       <c r="J232" s="23"/>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>526</v>
       </c>
@@ -11232,7 +11254,7 @@
       <c r="I233" s="16"/>
       <c r="J233" s="23"/>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="16">
         <v>527</v>
       </c>
@@ -11250,7 +11272,7 @@
       <c r="I234" s="16"/>
       <c r="J234" s="23"/>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="16">
         <v>528</v>
       </c>
@@ -11268,7 +11290,7 @@
       <c r="I235" s="16"/>
       <c r="J235" s="23"/>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>529</v>
       </c>
@@ -11286,7 +11308,7 @@
       <c r="I236" s="16"/>
       <c r="J236" s="23"/>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>530</v>
       </c>
@@ -11304,7 +11326,7 @@
       <c r="I237" s="16"/>
       <c r="J237" s="23"/>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>531</v>
       </c>
@@ -11322,7 +11344,7 @@
       <c r="I238" s="16"/>
       <c r="J238" s="23"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>532</v>
       </c>
@@ -11340,7 +11362,7 @@
       <c r="I239" s="16"/>
       <c r="J239" s="23"/>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="16">
         <v>533</v>
       </c>
@@ -11358,7 +11380,7 @@
       <c r="I240" s="16"/>
       <c r="J240" s="23"/>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>534</v>
       </c>
@@ -11376,7 +11398,7 @@
       <c r="I241" s="16"/>
       <c r="J241" s="23"/>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>535</v>
       </c>
@@ -11394,7 +11416,7 @@
       <c r="I242" s="16"/>
       <c r="J242" s="23"/>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="16">
         <v>536</v>
       </c>
@@ -11412,7 +11434,7 @@
       <c r="I243" s="16"/>
       <c r="J243" s="23"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>537</v>
       </c>
@@ -11430,7 +11452,7 @@
       <c r="I244" s="16"/>
       <c r="J244" s="23"/>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="16">
         <v>538</v>
       </c>
@@ -11448,7 +11470,7 @@
       <c r="I245" s="16"/>
       <c r="J245" s="23"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>539</v>
       </c>
@@ -11466,7 +11488,7 @@
       <c r="I246" s="16"/>
       <c r="J246" s="23"/>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="16">
         <v>540</v>
       </c>
@@ -11484,7 +11506,7 @@
       <c r="I247" s="16"/>
       <c r="J247" s="23"/>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>541</v>
       </c>
@@ -11502,7 +11524,7 @@
       <c r="I248" s="16"/>
       <c r="J248" s="23"/>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="16">
         <v>542</v>
       </c>
@@ -11520,7 +11542,7 @@
       <c r="I249" s="16"/>
       <c r="J249" s="23"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="16">
         <v>543</v>
       </c>
@@ -11538,7 +11560,7 @@
       <c r="I250" s="16"/>
       <c r="J250" s="23"/>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>544</v>
       </c>
@@ -11556,7 +11578,7 @@
       <c r="I251" s="16"/>
       <c r="J251" s="23"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="16">
         <v>545</v>
       </c>
@@ -11574,7 +11596,7 @@
       <c r="I252" s="16"/>
       <c r="J252" s="23"/>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="16">
         <v>546</v>
       </c>
@@ -11592,7 +11614,7 @@
       <c r="I253" s="16"/>
       <c r="J253" s="23"/>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>547</v>
       </c>
@@ -11610,7 +11632,7 @@
       <c r="I254" s="16"/>
       <c r="J254" s="23"/>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>548</v>
       </c>
@@ -11628,7 +11650,7 @@
       <c r="I255" s="16"/>
       <c r="J255" s="23"/>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="16">
         <v>549</v>
       </c>
@@ -11646,7 +11668,7 @@
       <c r="I256" s="16"/>
       <c r="J256" s="23"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>550</v>
       </c>
@@ -11664,7 +11686,7 @@
       <c r="I257" s="16"/>
       <c r="J257" s="23"/>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>551</v>
       </c>
@@ -11684,7 +11706,7 @@
       <c r="I258" s="32"/>
       <c r="J258" s="23"/>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>552</v>
       </c>
@@ -11704,7 +11726,7 @@
       <c r="I259" s="32"/>
       <c r="J259" s="23"/>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="16">
         <v>553</v>
       </c>
@@ -11724,7 +11746,7 @@
       <c r="I260" s="32"/>
       <c r="J260" s="23"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>554</v>
       </c>
@@ -11742,7 +11764,7 @@
       <c r="I261" s="16"/>
       <c r="J261" s="23"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="16">
         <v>555</v>
       </c>
@@ -11760,7 +11782,7 @@
       <c r="I262" s="16"/>
       <c r="J262" s="23"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>556</v>
       </c>
@@ -11778,7 +11800,7 @@
       <c r="I263" s="16"/>
       <c r="J263" s="23"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="16">
         <v>557</v>
       </c>
@@ -11796,7 +11818,7 @@
       <c r="I264" s="16"/>
       <c r="J264" s="23"/>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="16">
         <v>558</v>
       </c>
@@ -11814,7 +11836,7 @@
       <c r="I265" s="16"/>
       <c r="J265" s="23"/>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>559</v>
       </c>
@@ -11832,7 +11854,7 @@
       <c r="I266" s="16"/>
       <c r="J266" s="23"/>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="16">
         <v>560</v>
       </c>
@@ -11850,7 +11872,7 @@
       <c r="I267" s="16"/>
       <c r="J267" s="23"/>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>561</v>
       </c>
@@ -11868,7 +11890,7 @@
       <c r="I268" s="16"/>
       <c r="J268" s="23"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>562</v>
       </c>
@@ -11886,7 +11908,7 @@
       <c r="I269" s="16"/>
       <c r="J269" s="23"/>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>563</v>
       </c>
@@ -11904,7 +11926,7 @@
       <c r="I270" s="16"/>
       <c r="J270" s="23"/>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>564</v>
       </c>
@@ -11922,7 +11944,7 @@
       <c r="I271" s="16"/>
       <c r="J271" s="23"/>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="16">
         <v>565</v>
       </c>
@@ -11940,7 +11962,7 @@
       <c r="I272" s="16"/>
       <c r="J272" s="23"/>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="16">
         <v>566</v>
       </c>
@@ -11958,7 +11980,7 @@
       <c r="I273" s="16"/>
       <c r="J273" s="23"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="16">
         <v>567</v>
       </c>
@@ -11976,7 +11998,7 @@
       <c r="I274" s="16"/>
       <c r="J274" s="23"/>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="16">
         <v>568</v>
       </c>
@@ -11994,7 +12016,7 @@
       <c r="I275" s="16"/>
       <c r="J275" s="23"/>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>569</v>
       </c>
@@ -12012,7 +12034,7 @@
       <c r="I276" s="16"/>
       <c r="J276" s="23"/>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>570</v>
       </c>
@@ -12030,7 +12052,7 @@
       <c r="I277" s="16"/>
       <c r="J277" s="23"/>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="16">
         <v>571</v>
       </c>
@@ -12048,7 +12070,7 @@
       <c r="I278" s="16"/>
       <c r="J278" s="23"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="16">
         <v>572</v>
       </c>
@@ -12066,7 +12088,7 @@
       <c r="I279" s="16"/>
       <c r="J279" s="23"/>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>573</v>
       </c>
@@ -12084,7 +12106,7 @@
       <c r="I280" s="16"/>
       <c r="J280" s="23"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>574</v>
       </c>
@@ -12102,7 +12124,7 @@
       <c r="I281" s="16"/>
       <c r="J281" s="23"/>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="16">
         <v>575</v>
       </c>
@@ -12120,7 +12142,7 @@
       <c r="I282" s="16"/>
       <c r="J282" s="23"/>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="16">
         <v>576</v>
       </c>
@@ -12138,7 +12160,7 @@
       <c r="I283" s="16"/>
       <c r="J283" s="23"/>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="16">
         <v>577</v>
       </c>
@@ -12156,7 +12178,7 @@
       <c r="I284" s="16"/>
       <c r="J284" s="23"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>578</v>
       </c>
@@ -12174,7 +12196,7 @@
       <c r="I285" s="16"/>
       <c r="J285" s="23"/>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>579</v>
       </c>
@@ -12192,7 +12214,7 @@
       <c r="I286" s="16"/>
       <c r="J286" s="23"/>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>580</v>
       </c>
@@ -12210,7 +12232,7 @@
       <c r="I287" s="16"/>
       <c r="J287" s="23"/>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>581</v>
       </c>
@@ -12228,7 +12250,7 @@
       <c r="I288" s="16"/>
       <c r="J288" s="23"/>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>582</v>
       </c>
@@ -12246,7 +12268,7 @@
       <c r="I289" s="16"/>
       <c r="J289" s="23"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>583</v>
       </c>
@@ -12264,7 +12286,7 @@
       <c r="I290" s="16"/>
       <c r="J290" s="23"/>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="16">
         <v>584</v>
       </c>
@@ -12282,7 +12304,7 @@
       <c r="I291" s="16"/>
       <c r="J291" s="23"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="16">
         <v>585</v>
       </c>
@@ -12300,7 +12322,7 @@
       <c r="I292" s="16"/>
       <c r="J292" s="23"/>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="16">
         <v>586</v>
       </c>
@@ -12318,7 +12340,7 @@
       <c r="I293" s="16"/>
       <c r="J293" s="23"/>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="16">
         <v>587</v>
       </c>
@@ -12336,7 +12358,7 @@
       <c r="I294" s="16"/>
       <c r="J294" s="23"/>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="16">
         <v>588</v>
       </c>
@@ -12354,7 +12376,7 @@
       <c r="I295" s="16"/>
       <c r="J295" s="23"/>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>589</v>
       </c>
@@ -12372,7 +12394,7 @@
       <c r="I296" s="16"/>
       <c r="J296" s="23"/>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="16">
         <v>590</v>
       </c>
@@ -12390,7 +12412,7 @@
       <c r="I297" s="16"/>
       <c r="J297" s="23"/>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>591</v>
       </c>
@@ -12408,7 +12430,7 @@
       <c r="I298" s="16"/>
       <c r="J298" s="23"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="16">
         <v>592</v>
       </c>
@@ -12426,7 +12448,7 @@
       <c r="I299" s="16"/>
       <c r="J299" s="23"/>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>593</v>
       </c>
@@ -12444,7 +12466,7 @@
       <c r="I300" s="16"/>
       <c r="J300" s="23"/>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>594</v>
       </c>
@@ -12462,7 +12484,7 @@
       <c r="I301" s="16"/>
       <c r="J301" s="23"/>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>595</v>
       </c>
@@ -12480,7 +12502,7 @@
       <c r="I302" s="16"/>
       <c r="J302" s="23"/>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>596</v>
       </c>
@@ -12498,7 +12520,7 @@
       <c r="I303" s="16"/>
       <c r="J303" s="23"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="16">
         <v>597</v>
       </c>
@@ -12516,7 +12538,7 @@
       <c r="I304" s="16"/>
       <c r="J304" s="23"/>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="16">
         <v>598</v>
       </c>
@@ -12534,7 +12556,7 @@
       <c r="I305" s="16"/>
       <c r="J305" s="23"/>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="16">
         <v>599</v>
       </c>
@@ -12552,7 +12574,7 @@
       <c r="I306" s="16"/>
       <c r="J306" s="23"/>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="16"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25" t="s">
@@ -12566,7 +12588,7 @@
       <c r="I307" s="16"/>
       <c r="J307" s="23"/>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="16"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25" t="s">
@@ -12580,7 +12602,7 @@
       <c r="I308" s="16"/>
       <c r="J308" s="23"/>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="16"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25" t="s">
@@ -12594,7 +12616,7 @@
       <c r="I309" s="16"/>
       <c r="J309" s="23"/>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="16"/>
       <c r="B310" s="25"/>
       <c r="C310" s="25" t="s">
@@ -12608,28 +12630,28 @@
       <c r="I310" s="16"/>
       <c r="J310" s="23"/>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J312" s="6"/>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J313" s="6"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J315" s="6"/>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J316" s="6"/>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J317" s="6"/>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J318" s="6"/>
     </row>
   </sheetData>
@@ -12657,7 +12679,7 @@
       <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" style="16" customWidth="1"/>
@@ -12669,7 +12691,7 @@
     <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>427</v>
       </c>
@@ -12701,7 +12723,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -12725,7 +12747,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1">
+    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -12751,7 +12773,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1">
+    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -12777,7 +12799,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1">
+    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -12799,7 +12821,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="32.4">
+    <row r="6" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -12825,7 +12847,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -12849,7 +12871,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -12865,7 +12887,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -12889,7 +12911,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -12913,7 +12935,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -12935,7 +12957,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -12959,7 +12981,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -12983,7 +13005,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -12999,7 +13021,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -13025,7 +13047,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -13051,7 +13073,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -13075,7 +13097,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="32.4">
+    <row r="18" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -13101,7 +13123,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -13127,7 +13149,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -13153,7 +13175,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -13179,7 +13201,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -13205,7 +13227,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -13231,7 +13253,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -13257,7 +13279,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -13283,7 +13305,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -13309,7 +13331,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -13335,7 +13357,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -13361,7 +13383,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -13387,7 +13409,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -13413,7 +13435,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -13439,7 +13461,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -13463,7 +13485,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -13489,7 +13511,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -13515,7 +13537,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -13539,7 +13561,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -13563,7 +13585,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -13589,7 +13611,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -13613,7 +13635,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -13639,7 +13661,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -13665,7 +13687,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -13691,7 +13713,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -13717,7 +13739,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -13743,7 +13765,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -13767,7 +13789,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -13791,7 +13813,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -13815,7 +13837,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -13839,7 +13861,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -13865,7 +13887,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -13889,7 +13911,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -13915,7 +13937,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -13941,7 +13963,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -13967,7 +13989,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -13993,7 +14015,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -14017,7 +14039,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -14043,7 +14065,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -14069,7 +14091,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -14095,7 +14117,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -14119,7 +14141,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -14143,7 +14165,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -14167,7 +14189,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -14191,7 +14213,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -14215,7 +14237,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -14241,7 +14263,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -14265,7 +14287,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -14291,7 +14313,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -14315,7 +14337,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -14339,7 +14361,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -14365,7 +14387,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -14391,7 +14413,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -14417,7 +14439,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -14443,7 +14465,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -14469,7 +14491,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -14493,7 +14515,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -14517,7 +14539,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -14541,7 +14563,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -14567,7 +14589,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -14591,7 +14613,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -14615,7 +14637,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -14639,7 +14661,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -14663,7 +14685,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -14687,7 +14709,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -14713,7 +14735,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -14737,7 +14759,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -14761,7 +14783,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -14785,7 +14807,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -14809,7 +14831,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -14833,7 +14855,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -14857,7 +14879,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -14881,7 +14903,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -14905,7 +14927,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -14929,7 +14951,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -14953,7 +14975,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -14979,7 +15001,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -15003,7 +15025,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -15027,7 +15049,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -15051,7 +15073,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -15077,7 +15099,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -15101,7 +15123,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -15127,7 +15149,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -15153,7 +15175,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -15179,7 +15201,7 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -15203,7 +15225,7 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -15227,7 +15249,7 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -15251,7 +15273,7 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -15275,7 +15297,7 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -15299,7 +15321,7 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -15325,7 +15347,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -15349,7 +15371,7 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -15375,7 +15397,7 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -15399,7 +15421,7 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -15423,7 +15445,7 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -15449,7 +15471,7 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -15465,7 +15487,7 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -15489,7 +15511,7 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -15513,7 +15535,7 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -15537,7 +15559,7 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -15561,7 +15583,7 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -15587,7 +15609,7 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -15611,7 +15633,7 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -15637,7 +15659,7 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -15663,7 +15685,7 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -15687,7 +15709,7 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -15713,7 +15735,7 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -15739,7 +15761,7 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -15763,7 +15785,7 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -15787,7 +15809,7 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -15811,7 +15833,7 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -15835,7 +15857,7 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -15861,7 +15883,7 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -15885,7 +15907,7 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -15911,7 +15933,7 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -15937,7 +15959,7 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -15963,7 +15985,7 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -15987,7 +16009,7 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -16013,7 +16035,7 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -16037,7 +16059,7 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -16061,7 +16083,7 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -16087,7 +16109,7 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -16113,7 +16135,7 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -16137,7 +16159,7 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -16161,7 +16183,7 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -16185,7 +16207,7 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -16209,7 +16231,7 @@
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -16233,7 +16255,7 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -16257,7 +16279,7 @@
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -16281,7 +16303,7 @@
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -16305,7 +16327,7 @@
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -16329,7 +16351,7 @@
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -16353,7 +16375,7 @@
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -16377,7 +16399,7 @@
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -16401,7 +16423,7 @@
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -16425,7 +16447,7 @@
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -16449,7 +16471,7 @@
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -16473,7 +16495,7 @@
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -16497,7 +16519,7 @@
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -16521,7 +16543,7 @@
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -16545,7 +16567,7 @@
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -16569,7 +16591,7 @@
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -16593,7 +16615,7 @@
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -16617,7 +16639,7 @@
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -16641,7 +16663,7 @@
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -16657,7 +16679,7 @@
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -16681,7 +16703,7 @@
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -16705,7 +16727,7 @@
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -16729,7 +16751,7 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>165</v>
       </c>

--- a/tel/調度資料.xlsx
+++ b/tel/調度資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D40E9-196A-40D9-B537-26E43DC92784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F35286A-DD1D-4D7C-A8DF-2A71F9500CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="-108" windowWidth="22368" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1135">
   <si>
     <t>分機號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1757,14 +1757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>220J1 - 104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220J1 - 108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C端子位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3712,47 +3704,7 @@
     <t>*LENS給#110使用</t>
   </si>
   <si>
-    <t>220J1 - 107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220J1 - 101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>430B - 206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220J1 - 109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220J1 - 110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220J1 - 111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220J1 - 195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J - 301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J - 303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J - 304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J - 302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4012,41 +3964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>330P - 233
-OG2 - 33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330P - 247
-OG2 - 47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330P - 248
-OG2 - 48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330P - 203
-OG1 - 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330P - 209
-OG2 - 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330P - 230
-OG1 - 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>330P - 231
-OG1 - 31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E2 - 239</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4060,6 +3977,118 @@
   </si>
   <si>
     <t>T5/T6 變電站 (#2主變旁) 電梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J - 301&gt;W2 - 27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J - 302&gt;W2 - 52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J - 303&gt;W2 - 91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J - 304&gt;W2 - 522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 109&gt;W3 - 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 110&gt;W3 - 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 111&gt;W3 - 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 107&gt;W3 - 78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 101&gt;W3 - 83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 195&gt;W3 - 95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 103&gt;W3 - 103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 104&gt;W3 - 104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 108&gt;W3 - 108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 115&gt;W3 - 115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 123&gt;W3 - 123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 153&gt;W3 - 153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 165&gt;W3 - 165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 178&gt;W3 - 178</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 183&gt;W3 - 183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 186&gt;W3 - 186</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220J1 - 196&gt;W3 - 196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 203&gt;OG1 - 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 209&gt;OG2 - 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 233&gt;OG2 - 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 230&gt;OG1 - 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 231&gt;OG1 - 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 247&gt;OG2 - 47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330P - 248&gt;OG2 - 48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5551,8 +5580,8 @@
   <dimension ref="A1:K318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5572,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>408</v>
@@ -5598,7 +5627,7 @@
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5620,12 +5649,12 @@
     </row>
     <row r="3" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
       <c r="D3" s="12" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>4</v>
@@ -5644,7 +5673,7 @@
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -5668,12 +5697,12 @@
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="30" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>9</v>
@@ -5689,23 +5718,23 @@
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="H6" s="16">
         <v>0</v>
@@ -5719,10 +5748,10 @@
         <v>300</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>421</v>
@@ -5747,10 +5776,10 @@
         <v>301</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>21</v>
@@ -5773,10 +5802,10 @@
         <v>302</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5791,10 +5820,10 @@
         <v>303</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>22</v>
@@ -5817,10 +5846,10 @@
         <v>304</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>23</v>
@@ -5843,10 +5872,10 @@
         <v>305</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -5867,10 +5896,10 @@
         <v>306</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>24</v>
@@ -5893,10 +5922,10 @@
         <v>307</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>25</v>
@@ -5919,10 +5948,10 @@
         <v>308</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -5937,17 +5966,17 @@
         <v>309</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="12" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>58</v>
@@ -5965,13 +5994,13 @@
         <v>310</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="12" t="s">
@@ -5993,13 +6022,13 @@
         <v>311</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>28</v>
+        <v>1121</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="12" t="s">
@@ -6019,16 +6048,16 @@
         <v>312</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>17</v>
@@ -6049,10 +6078,10 @@
         <v>313</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>30</v>
@@ -6077,10 +6106,10 @@
         <v>314</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>31</v>
@@ -6105,13 +6134,13 @@
         <v>315</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>32</v>
+        <v>1120</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="12" t="s">
@@ -6133,13 +6162,13 @@
         <v>316</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>33</v>
+        <v>1125</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="12" t="s">
@@ -6161,16 +6190,16 @@
         <v>317</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>45</v>
@@ -6191,10 +6220,10 @@
         <v>318</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>35</v>
@@ -6219,10 +6248,10 @@
         <v>319</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>36</v>
@@ -6247,10 +6276,10 @@
         <v>320</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>37</v>
@@ -6275,13 +6304,13 @@
         <v>321</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>431</v>
+        <v>1118</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="12" t="s">
@@ -6303,16 +6332,16 @@
         <v>322</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>50</v>
@@ -6333,16 +6362,16 @@
         <v>323</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>51</v>
@@ -6363,10 +6392,10 @@
         <v>324</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>41</v>
@@ -6391,10 +6420,10 @@
         <v>325</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -6409,16 +6438,16 @@
         <v>326</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>45</v>
@@ -6439,10 +6468,10 @@
         <v>327</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -6457,10 +6486,10 @@
         <v>328</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -6475,10 +6504,10 @@
         <v>329</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>43</v>
@@ -6501,10 +6530,10 @@
         <v>330</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>77</v>
@@ -6529,10 +6558,10 @@
         <v>331</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>78</v>
@@ -6557,10 +6586,10 @@
         <v>332</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>79</v>
@@ -6583,10 +6612,10 @@
         <v>333</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
@@ -6609,10 +6638,10 @@
         <v>334</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
@@ -6627,10 +6656,10 @@
         <v>335</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>81</v>
@@ -6655,10 +6684,10 @@
         <v>336</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>82</v>
@@ -6681,10 +6710,10 @@
         <v>337</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>83</v>
@@ -6709,10 +6738,10 @@
         <v>338</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D45" s="16" t="s">
         <v>84</v>
@@ -6737,10 +6766,10 @@
         <v>339</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D46" s="16" t="s">
         <v>85</v>
@@ -6765,10 +6794,10 @@
         <v>340</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
@@ -6783,10 +6812,10 @@
         <v>341</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
@@ -6801,10 +6830,10 @@
         <v>342</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
@@ -6819,10 +6848,10 @@
         <v>343</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -6837,10 +6866,10 @@
         <v>344</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
@@ -6855,10 +6884,10 @@
         <v>345</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
@@ -6873,10 +6902,10 @@
         <v>346</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
@@ -6891,10 +6920,10 @@
         <v>347</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -6909,10 +6938,10 @@
         <v>348</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>86</v>
@@ -6937,10 +6966,10 @@
         <v>349</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D56" s="16" t="s">
         <v>87</v>
@@ -6965,10 +6994,10 @@
         <v>350</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>88</v>
@@ -6991,10 +7020,10 @@
         <v>351</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -7009,13 +7038,13 @@
         <v>352</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
@@ -7035,10 +7064,10 @@
         <v>353</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D60" s="26"/>
       <c r="E60" s="16"/>
@@ -7053,13 +7082,13 @@
         <v>354</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
@@ -7073,10 +7102,10 @@
         <v>355</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
@@ -7091,16 +7120,16 @@
         <v>356</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>103</v>
@@ -7119,16 +7148,16 @@
         <v>357</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>104</v>
@@ -7147,13 +7176,13 @@
         <v>358</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>1045</v>
+        <v>1111</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
@@ -7175,22 +7204,22 @@
         <v>359</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>105</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="H66" s="16">
         <v>0</v>
@@ -7203,10 +7232,10 @@
         <v>360</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -7221,10 +7250,10 @@
         <v>361</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
@@ -7239,10 +7268,10 @@
         <v>362</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
@@ -7257,13 +7286,13 @@
         <v>363</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="16" t="s">
@@ -7285,10 +7314,10 @@
         <v>364</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -7303,10 +7332,10 @@
         <v>365</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
@@ -7321,13 +7350,13 @@
         <v>366</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>125</v>
+        <v>1123</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
@@ -7349,13 +7378,13 @@
         <v>367</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>1046</v>
+        <v>1112</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="16" t="s">
@@ -7377,22 +7406,22 @@
         <v>368</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C75" s="28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="F75" s="16" t="s">
         <v>104</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="H75" s="16">
         <v>0</v>
@@ -7407,13 +7436,13 @@
         <v>369</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C76" s="28" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="16" t="s">
@@ -7435,10 +7464,10 @@
         <v>370</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -7453,10 +7482,10 @@
         <v>371</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>128</v>
@@ -7479,16 +7508,16 @@
         <v>372</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>143</v>
@@ -7509,16 +7538,16 @@
         <v>373</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>104</v>
@@ -7539,16 +7568,16 @@
         <v>374</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>104</v>
@@ -7569,16 +7598,16 @@
         <v>375</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="F82" s="16" t="s">
         <v>104</v>
@@ -7597,16 +7626,16 @@
         <v>376</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>104</v>
@@ -7625,16 +7654,16 @@
         <v>377</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>144</v>
@@ -7653,10 +7682,10 @@
         <v>378</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -7671,10 +7700,10 @@
         <v>379</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
@@ -7695,10 +7724,10 @@
         <v>380</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>133</v>
@@ -7721,10 +7750,10 @@
         <v>381</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>134</v>
@@ -7747,13 +7776,13 @@
         <v>382</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16" t="s">
@@ -7775,10 +7804,10 @@
         <v>383</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>136</v>
@@ -7801,10 +7830,10 @@
         <v>384</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>137</v>
@@ -7829,10 +7858,10 @@
         <v>385</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>138</v>
@@ -7855,10 +7884,10 @@
         <v>386</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
@@ -7873,13 +7902,13 @@
         <v>387</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="16" t="s">
@@ -7899,10 +7928,10 @@
         <v>388</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>140</v>
@@ -7927,10 +7956,10 @@
         <v>389</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
@@ -7945,10 +7974,10 @@
         <v>390</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D97" s="16" t="s">
         <v>172</v>
@@ -7973,10 +8002,10 @@
         <v>391</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D98" s="16" t="s">
         <v>417</v>
@@ -8001,13 +8030,13 @@
         <v>392</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="16" t="s">
@@ -8029,10 +8058,10 @@
         <v>393</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D100" s="16" t="s">
         <v>174</v>
@@ -8057,10 +8086,10 @@
         <v>394</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>175</v>
@@ -8083,10 +8112,10 @@
         <v>395</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>176</v>
@@ -8103,10 +8132,10 @@
         <v>396</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D103" s="16" t="s">
         <v>177</v>
@@ -8129,10 +8158,10 @@
         <v>397</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
@@ -8147,10 +8176,10 @@
         <v>398</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>178</v>
@@ -8168,18 +8197,18 @@
       <c r="I105" s="16"/>
       <c r="J105" s="23"/>
     </row>
-    <row r="106" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>399</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="16" t="s">
@@ -8201,13 +8230,13 @@
         <v>400</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>1049</v>
+        <v>1107</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="16" t="s">
@@ -8227,10 +8256,10 @@
         <v>401</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>181</v>
@@ -8253,10 +8282,10 @@
         <v>402</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D109" s="16" t="s">
         <v>182</v>
@@ -8279,13 +8308,13 @@
         <v>403</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>183</v>
+        <v>1117</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="16" t="s">
@@ -8305,10 +8334,10 @@
         <v>404</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
@@ -8323,10 +8352,10 @@
         <v>405</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -8341,10 +8370,10 @@
         <v>406</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>184</v>
@@ -8367,10 +8396,10 @@
         <v>407</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D114" s="16" t="s">
         <v>185</v>
@@ -8395,13 +8424,13 @@
         <v>408</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>1047</v>
+        <v>1113</v>
       </c>
       <c r="E115" s="16"/>
       <c r="F115" s="16" t="s">
@@ -8421,13 +8450,13 @@
         <v>409</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>1043</v>
+        <v>1115</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="16" t="s">
@@ -8447,13 +8476,13 @@
         <v>410</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>1042</v>
+        <v>1114</v>
       </c>
       <c r="E117" s="16"/>
       <c r="F117" s="16" t="s">
@@ -8473,13 +8502,13 @@
         <v>411</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>189</v>
+        <v>1126</v>
       </c>
       <c r="E118" s="16"/>
       <c r="F118" s="16" t="s">
@@ -8499,10 +8528,10 @@
         <v>412</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>190</v>
@@ -8525,10 +8554,10 @@
         <v>413</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D120" s="16" t="s">
         <v>193</v>
@@ -8551,10 +8580,10 @@
         <v>414</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>191</v>
@@ -8577,10 +8606,10 @@
         <v>415</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>192</v>
@@ -8603,10 +8632,10 @@
         <v>416</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>418</v>
@@ -8629,13 +8658,13 @@
         <v>417</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="E124" s="16"/>
       <c r="F124" s="16" t="s">
@@ -8655,13 +8684,13 @@
         <v>418</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>195</v>
+        <v>1122</v>
       </c>
       <c r="E125" s="16"/>
       <c r="F125" s="16" t="s">
@@ -8683,10 +8712,10 @@
         <v>419</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D126" s="16" t="s">
         <v>196</v>
@@ -8709,10 +8738,10 @@
         <v>420</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>234</v>
@@ -8735,10 +8764,10 @@
         <v>421</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D128" s="16" t="s">
         <v>235</v>
@@ -8761,10 +8790,10 @@
         <v>422</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D129" s="16" t="s">
         <v>236</v>
@@ -8789,10 +8818,10 @@
         <v>423</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>237</v>
@@ -8815,10 +8844,10 @@
         <v>424</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>238</v>
@@ -8843,10 +8872,10 @@
         <v>425</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>239</v>
@@ -8871,10 +8900,10 @@
         <v>426</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>240</v>
@@ -8899,13 +8928,13 @@
         <v>427</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>241</v>
+        <v>1127</v>
       </c>
       <c r="E134" s="16"/>
       <c r="F134" s="16" t="s">
@@ -8925,10 +8954,10 @@
         <v>428</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D135" s="16" t="s">
         <v>242</v>
@@ -8951,10 +8980,10 @@
         <v>429</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D136" s="16" t="s">
         <v>243</v>
@@ -8977,10 +9006,10 @@
         <v>430</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>244</v>
@@ -9003,13 +9032,13 @@
         <v>431</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>1052</v>
+        <v>1108</v>
       </c>
       <c r="E138" s="16"/>
       <c r="F138" s="16" t="s">
@@ -9029,10 +9058,10 @@
         <v>432</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D139" s="16" t="s">
         <v>245</v>
@@ -9057,10 +9086,10 @@
         <v>433</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>246</v>
@@ -9083,10 +9112,10 @@
         <v>434</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>247</v>
@@ -9111,10 +9140,10 @@
         <v>435</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>248</v>
@@ -9137,16 +9166,16 @@
         <v>436</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>131</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="F143" s="16" t="s">
         <v>271</v>
@@ -9165,13 +9194,13 @@
         <v>437</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="E144" s="16"/>
       <c r="F144" s="16" t="s">
@@ -9193,10 +9222,10 @@
         <v>438</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
@@ -9211,10 +9240,10 @@
         <v>439</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>251</v>
@@ -9237,10 +9266,10 @@
         <v>440</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>252</v>
@@ -9263,10 +9292,10 @@
         <v>441</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>253</v>
@@ -9289,16 +9318,16 @@
         <v>442</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>275</v>
@@ -9317,16 +9346,16 @@
         <v>443</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>275</v>
@@ -9347,10 +9376,10 @@
         <v>444</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
@@ -9365,16 +9394,16 @@
         <v>445</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>277</v>
@@ -9393,10 +9422,10 @@
         <v>446</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D153" s="16" t="s">
         <v>258</v>
@@ -9421,10 +9450,10 @@
         <v>447</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D154" s="16" t="s">
         <v>259</v>
@@ -9449,10 +9478,10 @@
         <v>448</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D155" s="16" t="s">
         <v>260</v>
@@ -9475,16 +9504,16 @@
         <v>449</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>254</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="F156" s="16" t="s">
         <v>280</v>
@@ -9505,13 +9534,13 @@
         <v>450</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>1048</v>
+        <v>1116</v>
       </c>
       <c r="E157" s="16"/>
       <c r="F157" s="16" t="s">
@@ -9533,10 +9562,10 @@
         <v>451</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D158" s="16" t="s">
         <v>306</v>
@@ -9559,10 +9588,10 @@
         <v>452</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D159" s="16" t="s">
         <v>307</v>
@@ -9585,10 +9614,10 @@
         <v>453</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>308</v>
@@ -9611,10 +9640,10 @@
         <v>454</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -9629,35 +9658,35 @@
         <v>455</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
       <c r="F162" s="16" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="G162" s="17" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="H162" s="16"/>
       <c r="I162" s="16"/>
       <c r="J162" s="23"/>
     </row>
-    <row r="163" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="16">
         <v>456</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>1115</v>
+        <v>1130</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="16" t="s">
@@ -9677,13 +9706,13 @@
         <v>457</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>432</v>
+        <v>1119</v>
       </c>
       <c r="E164" s="16"/>
       <c r="F164" s="16" t="s">
@@ -9705,10 +9734,10 @@
         <v>458</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>311</v>
@@ -9731,10 +9760,10 @@
         <v>459</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>312</v>
@@ -9759,10 +9788,10 @@
         <v>460</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>313</v>
@@ -9787,10 +9816,10 @@
         <v>461</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>314</v>
@@ -9815,10 +9844,10 @@
         <v>462</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>315</v>
@@ -9841,10 +9870,10 @@
         <v>463</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>316</v>
@@ -9869,10 +9898,10 @@
         <v>464</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>317</v>
@@ -9895,10 +9924,10 @@
         <v>465</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>424</v>
@@ -9921,10 +9950,10 @@
         <v>466</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>318</v>
@@ -9949,10 +9978,10 @@
         <v>467</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>319</v>
@@ -9977,22 +10006,22 @@
         <v>468</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D175" s="16" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="F175" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="H175" s="16">
         <v>0</v>
@@ -10005,10 +10034,10 @@
         <v>469</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -10023,10 +10052,10 @@
         <v>470</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -10041,10 +10070,10 @@
         <v>471</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
@@ -10059,10 +10088,10 @@
         <v>472</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -10077,10 +10106,10 @@
         <v>473</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -10095,10 +10124,10 @@
         <v>474</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -10113,10 +10142,10 @@
         <v>475</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -10131,10 +10160,10 @@
         <v>476</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -10149,10 +10178,10 @@
         <v>477</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
@@ -10167,10 +10196,10 @@
         <v>478</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -10185,10 +10214,10 @@
         <v>479</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -10203,10 +10232,10 @@
         <v>480</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -10221,10 +10250,10 @@
         <v>481</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -10239,10 +10268,10 @@
         <v>482</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -10257,10 +10286,10 @@
         <v>483</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
@@ -10275,10 +10304,10 @@
         <v>484</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
@@ -10293,10 +10322,10 @@
         <v>485</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
@@ -10311,10 +10340,10 @@
         <v>486</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
@@ -10329,10 +10358,10 @@
         <v>487</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
@@ -10347,10 +10376,10 @@
         <v>488</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
@@ -10365,10 +10394,10 @@
         <v>489</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
@@ -10383,10 +10412,10 @@
         <v>490</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
@@ -10401,10 +10430,10 @@
         <v>491</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
@@ -10419,10 +10448,10 @@
         <v>492</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
@@ -10437,10 +10466,10 @@
         <v>493</v>
       </c>
       <c r="B200" s="16" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
@@ -10455,10 +10484,10 @@
         <v>494</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
@@ -10473,10 +10502,10 @@
         <v>495</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
@@ -10491,10 +10520,10 @@
         <v>496</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
@@ -10509,13 +10538,13 @@
         <v>497</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D204" s="32" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E204" s="32"/>
       <c r="F204" s="32"/>
@@ -10524,18 +10553,18 @@
       <c r="I204" s="32"/>
       <c r="J204" s="23"/>
     </row>
-    <row r="205" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>498</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>1116</v>
+        <v>1133</v>
       </c>
       <c r="E205" s="16"/>
       <c r="F205" s="16" t="s">
@@ -10550,18 +10579,18 @@
       <c r="I205" s="16"/>
       <c r="J205" s="23"/>
     </row>
-    <row r="206" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="16">
         <v>499</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>1117</v>
+        <v>1134</v>
       </c>
       <c r="E206" s="16"/>
       <c r="F206" s="16" t="s">
@@ -10576,18 +10605,18 @@
       <c r="I206" s="16"/>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="16">
         <v>500</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>1120</v>
+        <v>1131</v>
       </c>
       <c r="E207" s="16"/>
       <c r="F207" s="16" t="s">
@@ -10602,18 +10631,18 @@
       <c r="I207" s="16"/>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>501</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="E208" s="16"/>
       <c r="F208" s="16" t="s">
@@ -10633,10 +10662,10 @@
         <v>502</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D209" s="16" t="s">
         <v>348</v>
@@ -10659,10 +10688,10 @@
         <v>503</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D210" s="16" t="s">
         <v>349</v>
@@ -10685,10 +10714,10 @@
         <v>504</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D211" s="16" t="s">
         <v>350</v>
@@ -10711,10 +10740,10 @@
         <v>505</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C212" s="25" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>250</v>
@@ -10737,10 +10766,10 @@
         <v>506</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D213" s="16" t="s">
         <v>352</v>
@@ -10763,10 +10792,10 @@
         <v>507</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D214" s="16" t="s">
         <v>353</v>
@@ -10789,10 +10818,10 @@
         <v>508</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D215" s="16" t="s">
         <v>354</v>
@@ -10815,13 +10844,13 @@
         <v>509</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>1050</v>
+        <v>1109</v>
       </c>
       <c r="E216" s="16"/>
       <c r="F216" s="16" t="s">
@@ -10841,10 +10870,10 @@
         <v>510</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D217" s="16" t="s">
         <v>356</v>
@@ -10867,10 +10896,10 @@
         <v>511</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D218" s="16" t="s">
         <v>357</v>
@@ -10893,10 +10922,10 @@
         <v>512</v>
       </c>
       <c r="B219" s="16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D219" s="16" t="s">
         <v>358</v>
@@ -10919,10 +10948,10 @@
         <v>513</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D220" s="16" t="s">
         <v>426</v>
@@ -10945,10 +10974,10 @@
         <v>514</v>
       </c>
       <c r="B221" s="16" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D221" s="16" t="s">
         <v>420</v>
@@ -10971,10 +11000,10 @@
         <v>515</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D222" s="16" t="s">
         <v>359</v>
@@ -10997,10 +11026,10 @@
         <v>516</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D223" s="16" t="s">
         <v>360</v>
@@ -11023,10 +11052,10 @@
         <v>517</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D224" s="16" t="s">
         <v>361</v>
@@ -11049,10 +11078,10 @@
         <v>518</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D225" s="16" t="s">
         <v>362</v>
@@ -11075,13 +11104,13 @@
         <v>519</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>363</v>
+        <v>1124</v>
       </c>
       <c r="E226" s="16"/>
       <c r="F226" s="16" t="s">
@@ -11101,10 +11130,10 @@
         <v>520</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D227" s="16"/>
       <c r="E227" s="16"/>
@@ -11114,18 +11143,18 @@
       <c r="I227" s="16"/>
       <c r="J227" s="23"/>
     </row>
-    <row r="228" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="16">
         <v>521</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="E228" s="16"/>
       <c r="F228" s="16" t="s">
@@ -11145,13 +11174,13 @@
         <v>522</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>1051</v>
+        <v>1110</v>
       </c>
       <c r="E229" s="16"/>
       <c r="F229" s="16" t="s">
@@ -11171,10 +11200,10 @@
         <v>523</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D230" s="16" t="s">
         <v>419</v>
@@ -11197,10 +11226,10 @@
         <v>524</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D231" s="16" t="s">
         <v>406</v>
@@ -11223,10 +11252,10 @@
         <v>525</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
@@ -11241,10 +11270,10 @@
         <v>526</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
@@ -11259,10 +11288,10 @@
         <v>527</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
@@ -11277,10 +11306,10 @@
         <v>528</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
@@ -11295,10 +11324,10 @@
         <v>529</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
@@ -11313,10 +11342,10 @@
         <v>530</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
@@ -11331,10 +11360,10 @@
         <v>531</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
@@ -11349,10 +11378,10 @@
         <v>532</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
@@ -11367,10 +11396,10 @@
         <v>533</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
@@ -11385,10 +11414,10 @@
         <v>534</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
@@ -11403,10 +11432,10 @@
         <v>535</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
@@ -11421,10 +11450,10 @@
         <v>536</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
@@ -11439,10 +11468,10 @@
         <v>537</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
@@ -11457,10 +11486,10 @@
         <v>538</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
@@ -11475,10 +11504,10 @@
         <v>539</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
@@ -11493,10 +11522,10 @@
         <v>540</v>
       </c>
       <c r="B247" s="16" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
@@ -11511,10 +11540,10 @@
         <v>541</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
@@ -11529,10 +11558,10 @@
         <v>542</v>
       </c>
       <c r="B249" s="16" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
@@ -11547,10 +11576,10 @@
         <v>543</v>
       </c>
       <c r="B250" s="16" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
@@ -11565,10 +11594,10 @@
         <v>544</v>
       </c>
       <c r="B251" s="16" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
@@ -11583,10 +11612,10 @@
         <v>545</v>
       </c>
       <c r="B252" s="16" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C252" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
@@ -11601,10 +11630,10 @@
         <v>546</v>
       </c>
       <c r="B253" s="16" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C253" s="25" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
@@ -11619,10 +11648,10 @@
         <v>547</v>
       </c>
       <c r="B254" s="16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C254" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
@@ -11637,10 +11666,10 @@
         <v>548</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
@@ -11655,10 +11684,10 @@
         <v>549</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C256" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
@@ -11673,10 +11702,10 @@
         <v>550</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C257" s="25" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
@@ -11691,13 +11720,13 @@
         <v>551</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C258" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D258" s="32" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E258" s="32"/>
       <c r="F258" s="32"/>
@@ -11711,13 +11740,13 @@
         <v>552</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C259" s="25" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D259" s="32" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E259" s="32"/>
       <c r="F259" s="32"/>
@@ -11731,13 +11760,13 @@
         <v>553</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C260" s="25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D260" s="32" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E260" s="32"/>
       <c r="F260" s="32"/>
@@ -11751,10 +11780,10 @@
         <v>554</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C261" s="25" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
@@ -11769,10 +11798,10 @@
         <v>555</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C262" s="25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
@@ -11787,10 +11816,10 @@
         <v>556</v>
       </c>
       <c r="B263" s="16" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C263" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
@@ -11805,10 +11834,10 @@
         <v>557</v>
       </c>
       <c r="B264" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C264" s="25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
@@ -11823,10 +11852,10 @@
         <v>558</v>
       </c>
       <c r="B265" s="16" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C265" s="25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
@@ -11841,10 +11870,10 @@
         <v>559</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C266" s="25" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
@@ -11859,10 +11888,10 @@
         <v>560</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C267" s="25" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
@@ -11877,10 +11906,10 @@
         <v>561</v>
       </c>
       <c r="B268" s="16" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C268" s="25" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
@@ -11895,10 +11924,10 @@
         <v>562</v>
       </c>
       <c r="B269" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C269" s="25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
@@ -11913,10 +11942,10 @@
         <v>563</v>
       </c>
       <c r="B270" s="16" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C270" s="25" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
@@ -11931,10 +11960,10 @@
         <v>564</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C271" s="25" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
@@ -11949,10 +11978,10 @@
         <v>565</v>
       </c>
       <c r="B272" s="16" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C272" s="25" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
@@ -11967,10 +11996,10 @@
         <v>566</v>
       </c>
       <c r="B273" s="16" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C273" s="25" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
@@ -11985,10 +12014,10 @@
         <v>567</v>
       </c>
       <c r="B274" s="16" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C274" s="25" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
@@ -12003,10 +12032,10 @@
         <v>568</v>
       </c>
       <c r="B275" s="16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C275" s="25" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
@@ -12021,10 +12050,10 @@
         <v>569</v>
       </c>
       <c r="B276" s="16" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C276" s="25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
@@ -12039,10 +12068,10 @@
         <v>570</v>
       </c>
       <c r="B277" s="16" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C277" s="25" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
@@ -12057,10 +12086,10 @@
         <v>571</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C278" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
@@ -12075,10 +12104,10 @@
         <v>572</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C279" s="25" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
@@ -12093,10 +12122,10 @@
         <v>573</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C280" s="25" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
@@ -12111,10 +12140,10 @@
         <v>574</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C281" s="25" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
@@ -12129,10 +12158,10 @@
         <v>575</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C282" s="25" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
@@ -12147,10 +12176,10 @@
         <v>576</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C283" s="25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
@@ -12165,10 +12194,10 @@
         <v>577</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C284" s="25" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
@@ -12183,10 +12212,10 @@
         <v>578</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C285" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
@@ -12201,10 +12230,10 @@
         <v>579</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C286" s="25" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
@@ -12219,10 +12248,10 @@
         <v>580</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C287" s="25" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
@@ -12237,10 +12266,10 @@
         <v>581</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C288" s="25" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
@@ -12255,10 +12284,10 @@
         <v>582</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C289" s="25" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
@@ -12273,10 +12302,10 @@
         <v>583</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C290" s="25" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
@@ -12291,10 +12320,10 @@
         <v>584</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C291" s="25" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
@@ -12309,10 +12338,10 @@
         <v>585</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C292" s="25" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
@@ -12327,10 +12356,10 @@
         <v>586</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C293" s="25" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
@@ -12345,10 +12374,10 @@
         <v>587</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C294" s="25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D294" s="16"/>
       <c r="E294" s="16"/>
@@ -12363,10 +12392,10 @@
         <v>588</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C295" s="25" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D295" s="16"/>
       <c r="E295" s="16"/>
@@ -12381,10 +12410,10 @@
         <v>589</v>
       </c>
       <c r="B296" s="16" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C296" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D296" s="16"/>
       <c r="E296" s="16"/>
@@ -12399,10 +12428,10 @@
         <v>590</v>
       </c>
       <c r="B297" s="16" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C297" s="25" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D297" s="16"/>
       <c r="E297" s="16"/>
@@ -12417,10 +12446,10 @@
         <v>591</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C298" s="25" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D298" s="16"/>
       <c r="E298" s="16"/>
@@ -12435,10 +12464,10 @@
         <v>592</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C299" s="25" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D299" s="16"/>
       <c r="E299" s="16"/>
@@ -12453,10 +12482,10 @@
         <v>593</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C300" s="25" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D300" s="16"/>
       <c r="E300" s="16"/>
@@ -12471,10 +12500,10 @@
         <v>594</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C301" s="25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D301" s="16"/>
       <c r="E301" s="16"/>
@@ -12489,10 +12518,10 @@
         <v>595</v>
       </c>
       <c r="B302" s="16" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C302" s="25" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D302" s="16"/>
       <c r="E302" s="16"/>
@@ -12507,10 +12536,10 @@
         <v>596</v>
       </c>
       <c r="B303" s="16" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C303" s="25" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D303" s="16"/>
       <c r="E303" s="16"/>
@@ -12525,10 +12554,10 @@
         <v>597</v>
       </c>
       <c r="B304" s="25" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C304" s="25" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D304" s="16"/>
       <c r="E304" s="16"/>
@@ -12543,10 +12572,10 @@
         <v>598</v>
       </c>
       <c r="B305" s="25" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C305" s="25" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D305" s="16"/>
       <c r="E305" s="16"/>
@@ -12561,10 +12590,10 @@
         <v>599</v>
       </c>
       <c r="B306" s="25" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C306" s="25" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D306" s="16"/>
       <c r="E306" s="16"/>
@@ -12578,7 +12607,7 @@
       <c r="A307" s="16"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D307" s="16"/>
       <c r="E307" s="16"/>
@@ -12592,7 +12621,7 @@
       <c r="A308" s="16"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D308" s="16"/>
       <c r="E308" s="16"/>
@@ -12606,7 +12635,7 @@
       <c r="A309" s="16"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D309" s="16"/>
       <c r="E309" s="16"/>
@@ -12620,7 +12649,7 @@
       <c r="A310" s="16"/>
       <c r="B310" s="25"/>
       <c r="C310" s="25" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D310" s="16"/>
       <c r="E310" s="16"/>

--- a/tel/調度資料.xlsx
+++ b/tel/調度資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F35286A-DD1D-4D7C-A8DF-2A71F9500CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D0DF71-2F46-45BD-8C2F-93B4F87A0CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="-108" windowWidth="22368" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1138">
   <si>
     <t>分機號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4089,6 +4089,18 @@
   </si>
   <si>
     <t>330P - 248&gt;OG2 - 48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430B - 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4KD變電站電梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4096,7 +4108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5581,10 +5593,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="19" bestFit="1" customWidth="1"/>
@@ -5596,7 +5608,7 @@
     <col min="10" max="10" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A2" s="30" t="s">
         <v>1054</v>
       </c>
@@ -5647,7 +5659,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="24"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A3" s="30" t="s">
         <v>1053</v>
       </c>
@@ -5671,7 +5683,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A4" s="30" t="s">
         <v>1052</v>
       </c>
@@ -5695,7 +5707,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A5" s="30" t="s">
         <v>1051</v>
       </c>
@@ -5716,7 +5728,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="32.4">
       <c r="A6" s="30" t="s">
         <v>1050</v>
       </c>
@@ -5743,7 +5755,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="32.4">
       <c r="A7" s="16">
         <v>300</v>
       </c>
@@ -5771,7 +5783,7 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="4" customFormat="1">
       <c r="A8" s="16">
         <v>301</v>
       </c>
@@ -5797,7 +5809,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="4" customFormat="1">
       <c r="A9" s="16">
         <v>302</v>
       </c>
@@ -5815,7 +5827,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="4" customFormat="1">
       <c r="A10" s="16">
         <v>303</v>
       </c>
@@ -5841,7 +5853,7 @@
       <c r="I10" s="16"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="4" customFormat="1">
       <c r="A11" s="16">
         <v>304</v>
       </c>
@@ -5867,7 +5879,7 @@
       <c r="I11" s="16"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="4" customFormat="1">
       <c r="A12" s="16">
         <v>305</v>
       </c>
@@ -5891,7 +5903,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="4" customFormat="1">
       <c r="A13" s="16">
         <v>306</v>
       </c>
@@ -5917,7 +5929,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="4" customFormat="1">
       <c r="A14" s="16">
         <v>307</v>
       </c>
@@ -5943,7 +5955,7 @@
       <c r="I14" s="16"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="4" customFormat="1">
       <c r="A15" s="16">
         <v>308</v>
       </c>
@@ -5961,7 +5973,7 @@
       <c r="I15" s="16"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="4" customFormat="1">
       <c r="A16" s="16">
         <v>309</v>
       </c>
@@ -5989,7 +6001,7 @@
       </c>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="4" customFormat="1">
       <c r="A17" s="16">
         <v>310</v>
       </c>
@@ -6017,7 +6029,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="4" customFormat="1">
       <c r="A18" s="16">
         <v>311</v>
       </c>
@@ -6043,7 +6055,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="32.4">
       <c r="A19" s="16">
         <v>312</v>
       </c>
@@ -6073,7 +6085,7 @@
       </c>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="4" customFormat="1">
       <c r="A20" s="16">
         <v>313</v>
       </c>
@@ -6101,7 +6113,7 @@
       </c>
       <c r="J20" s="23"/>
     </row>
-    <row r="21" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="4" customFormat="1">
       <c r="A21" s="16">
         <v>314</v>
       </c>
@@ -6129,7 +6141,7 @@
       </c>
       <c r="J21" s="23"/>
     </row>
-    <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="4" customFormat="1">
       <c r="A22" s="16">
         <v>315</v>
       </c>
@@ -6157,7 +6169,7 @@
       </c>
       <c r="J22" s="23"/>
     </row>
-    <row r="23" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="4" customFormat="1">
       <c r="A23" s="16">
         <v>316</v>
       </c>
@@ -6185,7 +6197,7 @@
       </c>
       <c r="J23" s="23"/>
     </row>
-    <row r="24" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="4" customFormat="1">
       <c r="A24" s="16">
         <v>317</v>
       </c>
@@ -6215,7 +6227,7 @@
       </c>
       <c r="J24" s="23"/>
     </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="4" customFormat="1">
       <c r="A25" s="16">
         <v>318</v>
       </c>
@@ -6243,7 +6255,7 @@
       </c>
       <c r="J25" s="23"/>
     </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="4" customFormat="1">
       <c r="A26" s="16">
         <v>319</v>
       </c>
@@ -6271,7 +6283,7 @@
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="4" customFormat="1">
       <c r="A27" s="16">
         <v>320</v>
       </c>
@@ -6299,7 +6311,7 @@
       </c>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="4" customFormat="1">
       <c r="A28" s="16">
         <v>321</v>
       </c>
@@ -6327,7 +6339,7 @@
       </c>
       <c r="J28" s="23"/>
     </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="4" customFormat="1">
       <c r="A29" s="16">
         <v>322</v>
       </c>
@@ -6357,7 +6369,7 @@
       </c>
       <c r="J29" s="23"/>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="4" customFormat="1">
       <c r="A30" s="16">
         <v>323</v>
       </c>
@@ -6387,7 +6399,7 @@
       </c>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="4" customFormat="1">
       <c r="A31" s="16">
         <v>324</v>
       </c>
@@ -6415,7 +6427,7 @@
       </c>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" s="4" customFormat="1">
       <c r="A32" s="16">
         <v>325</v>
       </c>
@@ -6433,7 +6445,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="23"/>
     </row>
-    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="4" customFormat="1">
       <c r="A33" s="16">
         <v>326</v>
       </c>
@@ -6463,7 +6475,7 @@
       </c>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="4" customFormat="1">
       <c r="A34" s="16">
         <v>327</v>
       </c>
@@ -6481,7 +6493,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" s="4" customFormat="1">
       <c r="A35" s="16">
         <v>328</v>
       </c>
@@ -6499,7 +6511,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="4" customFormat="1">
       <c r="A36" s="16">
         <v>329</v>
       </c>
@@ -6525,7 +6537,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="4" customFormat="1">
       <c r="A37" s="16">
         <v>330</v>
       </c>
@@ -6553,7 +6565,7 @@
       </c>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="4" customFormat="1">
       <c r="A38" s="16">
         <v>331</v>
       </c>
@@ -6581,7 +6593,7 @@
       </c>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="4" customFormat="1">
       <c r="A39" s="16">
         <v>332</v>
       </c>
@@ -6607,7 +6619,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="4" customFormat="1">
       <c r="A40" s="16">
         <v>333</v>
       </c>
@@ -6633,7 +6645,7 @@
       </c>
       <c r="J40" s="23"/>
     </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="4" customFormat="1">
       <c r="A41" s="16">
         <v>334</v>
       </c>
@@ -6651,7 +6663,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="23"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="16">
         <v>335</v>
       </c>
@@ -6679,7 +6691,7 @@
       </c>
       <c r="J42" s="23"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="16">
         <v>336</v>
       </c>
@@ -6705,7 +6717,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="16">
         <v>337</v>
       </c>
@@ -6733,7 +6745,7 @@
       </c>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="16">
         <v>338</v>
       </c>
@@ -6761,7 +6773,7 @@
       </c>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="16">
         <v>339</v>
       </c>
@@ -6789,7 +6801,7 @@
       </c>
       <c r="J46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="16">
         <v>340</v>
       </c>
@@ -6807,7 +6819,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="16">
         <v>341</v>
       </c>
@@ -6825,7 +6837,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="23"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="16">
         <v>342</v>
       </c>
@@ -6843,7 +6855,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="23"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="16">
         <v>343</v>
       </c>
@@ -6861,7 +6873,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="23"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="16">
         <v>344</v>
       </c>
@@ -6879,7 +6891,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="23"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="16">
         <v>345</v>
       </c>
@@ -6897,7 +6909,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="23"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="16">
         <v>346</v>
       </c>
@@ -6915,7 +6927,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="23"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="16">
         <v>347</v>
       </c>
@@ -6933,7 +6945,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="23"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="16">
         <v>348</v>
       </c>
@@ -6961,7 +6973,7 @@
       </c>
       <c r="J55" s="23"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="16">
         <v>349</v>
       </c>
@@ -6989,7 +7001,7 @@
       </c>
       <c r="J56" s="23"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="16">
         <v>350</v>
       </c>
@@ -7015,7 +7027,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="23"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="16">
         <v>351</v>
       </c>
@@ -7033,7 +7045,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="23"/>
     </row>
-    <row r="59" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="32.4">
       <c r="A59" s="16">
         <v>352</v>
       </c>
@@ -7059,7 +7071,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="23"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="16">
         <v>353</v>
       </c>
@@ -7077,7 +7089,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="23"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="29">
         <v>354</v>
       </c>
@@ -7097,7 +7109,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="23"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="16">
         <v>355</v>
       </c>
@@ -7115,7 +7127,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="23"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="16">
         <v>356</v>
       </c>
@@ -7143,7 +7155,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="23"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="16">
         <v>357</v>
       </c>
@@ -7171,7 +7183,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="23"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="16">
         <v>358</v>
       </c>
@@ -7199,7 +7211,7 @@
       </c>
       <c r="J65" s="23"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="16">
         <v>359</v>
       </c>
@@ -7227,7 +7239,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="23"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="16">
         <v>360</v>
       </c>
@@ -7245,7 +7257,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="23"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="16">
         <v>361</v>
       </c>
@@ -7263,7 +7275,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="23"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="16">
         <v>362</v>
       </c>
@@ -7281,7 +7293,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="23"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="16">
         <v>363</v>
       </c>
@@ -7309,7 +7321,7 @@
       </c>
       <c r="J70" s="23"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="16">
         <v>364</v>
       </c>
@@ -7327,7 +7339,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="23"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="16">
         <v>365</v>
       </c>
@@ -7345,7 +7357,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="23"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" s="16">
         <v>366</v>
       </c>
@@ -7373,7 +7385,7 @@
       </c>
       <c r="J73" s="23"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" s="16">
         <v>367</v>
       </c>
@@ -7401,7 +7413,7 @@
       </c>
       <c r="J74" s="23"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75" s="16">
         <v>368</v>
       </c>
@@ -7431,7 +7443,7 @@
       </c>
       <c r="J75" s="23"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76" s="16">
         <v>369</v>
       </c>
@@ -7459,7 +7471,7 @@
       </c>
       <c r="J76" s="23"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77" s="16">
         <v>370</v>
       </c>
@@ -7477,7 +7489,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="23"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" s="16">
         <v>371</v>
       </c>
@@ -7503,7 +7515,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="23"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" s="16">
         <v>372</v>
       </c>
@@ -7533,7 +7545,7 @@
       </c>
       <c r="J79" s="23"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" s="16">
         <v>373</v>
       </c>
@@ -7563,7 +7575,7 @@
       </c>
       <c r="J80" s="23"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" s="16">
         <v>374</v>
       </c>
@@ -7593,7 +7605,7 @@
       </c>
       <c r="J81" s="23"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" s="16">
         <v>375</v>
       </c>
@@ -7621,7 +7633,7 @@
       <c r="I82" s="16"/>
       <c r="J82" s="23"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" s="16">
         <v>376</v>
       </c>
@@ -7649,7 +7661,7 @@
       <c r="I83" s="16"/>
       <c r="J83" s="23"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" s="16">
         <v>377</v>
       </c>
@@ -7677,7 +7689,7 @@
       <c r="I84" s="16"/>
       <c r="J84" s="23"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" s="16">
         <v>378</v>
       </c>
@@ -7695,7 +7707,7 @@
       <c r="I85" s="16"/>
       <c r="J85" s="23"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" s="16">
         <v>379</v>
       </c>
@@ -7719,7 +7731,7 @@
       <c r="I86" s="16"/>
       <c r="J86" s="23"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" s="16">
         <v>380</v>
       </c>
@@ -7745,7 +7757,7 @@
       <c r="I87" s="16"/>
       <c r="J87" s="23"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88" s="16">
         <v>381</v>
       </c>
@@ -7771,7 +7783,7 @@
       <c r="I88" s="16"/>
       <c r="J88" s="23"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89" s="16">
         <v>382</v>
       </c>
@@ -7799,7 +7811,7 @@
       </c>
       <c r="J89" s="23"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" s="16">
         <v>383</v>
       </c>
@@ -7825,7 +7837,7 @@
       <c r="I90" s="16"/>
       <c r="J90" s="23"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91" s="16">
         <v>384</v>
       </c>
@@ -7853,7 +7865,7 @@
       </c>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" s="16">
         <v>385</v>
       </c>
@@ -7879,7 +7891,7 @@
       <c r="I92" s="16"/>
       <c r="J92" s="23"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" s="16">
         <v>386</v>
       </c>
@@ -7897,7 +7909,7 @@
       <c r="I93" s="16"/>
       <c r="J93" s="23"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" s="16">
         <v>387</v>
       </c>
@@ -7923,7 +7935,7 @@
       <c r="I94" s="16"/>
       <c r="J94" s="23"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" s="16">
         <v>388</v>
       </c>
@@ -7951,7 +7963,7 @@
       </c>
       <c r="J95" s="23"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" s="16">
         <v>389</v>
       </c>
@@ -7969,7 +7981,7 @@
       <c r="I96" s="16"/>
       <c r="J96" s="23"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" s="16">
         <v>390</v>
       </c>
@@ -7997,7 +8009,7 @@
       </c>
       <c r="J97" s="23"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" s="16">
         <v>391</v>
       </c>
@@ -8025,7 +8037,7 @@
       </c>
       <c r="J98" s="23"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" s="16">
         <v>392</v>
       </c>
@@ -8053,7 +8065,7 @@
       </c>
       <c r="J99" s="23"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" s="16">
         <v>393</v>
       </c>
@@ -8081,7 +8093,7 @@
       </c>
       <c r="J100" s="23"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" s="16">
         <v>394</v>
       </c>
@@ -8107,7 +8119,7 @@
       <c r="I101" s="16"/>
       <c r="J101" s="23"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102" s="16">
         <v>395</v>
       </c>
@@ -8127,7 +8139,7 @@
       <c r="I102" s="16"/>
       <c r="J102" s="23"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103" s="16">
         <v>396</v>
       </c>
@@ -8153,7 +8165,7 @@
       <c r="I103" s="16"/>
       <c r="J103" s="23"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104" s="16">
         <v>397</v>
       </c>
@@ -8171,7 +8183,7 @@
       <c r="I104" s="16"/>
       <c r="J104" s="23"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105" s="16">
         <v>398</v>
       </c>
@@ -8197,7 +8209,7 @@
       <c r="I105" s="16"/>
       <c r="J105" s="23"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106" s="16">
         <v>399</v>
       </c>
@@ -8225,7 +8237,7 @@
       </c>
       <c r="J106" s="23"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107" s="16">
         <v>400</v>
       </c>
@@ -8251,7 +8263,7 @@
       <c r="I107" s="16"/>
       <c r="J107" s="23"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108" s="16">
         <v>401</v>
       </c>
@@ -8277,7 +8289,7 @@
       <c r="I108" s="16"/>
       <c r="J108" s="23"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" s="16">
         <v>402</v>
       </c>
@@ -8303,7 +8315,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="23"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110" s="16">
         <v>403</v>
       </c>
@@ -8329,7 +8341,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="23"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111" s="16">
         <v>404</v>
       </c>
@@ -8347,7 +8359,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="23"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112" s="16">
         <v>405</v>
       </c>
@@ -8365,7 +8377,7 @@
       <c r="I112" s="16"/>
       <c r="J112" s="23"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113" s="16">
         <v>406</v>
       </c>
@@ -8391,7 +8403,7 @@
       <c r="I113" s="16"/>
       <c r="J113" s="23"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114" s="16">
         <v>407</v>
       </c>
@@ -8419,7 +8431,7 @@
       </c>
       <c r="J114" s="23"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115" s="16">
         <v>408</v>
       </c>
@@ -8445,7 +8457,7 @@
       <c r="I115" s="16"/>
       <c r="J115" s="23"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116" s="16">
         <v>409</v>
       </c>
@@ -8471,7 +8483,7 @@
       <c r="I116" s="16"/>
       <c r="J116" s="23"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117" s="16">
         <v>410</v>
       </c>
@@ -8497,7 +8509,7 @@
       <c r="I117" s="16"/>
       <c r="J117" s="23"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118" s="16">
         <v>411</v>
       </c>
@@ -8523,7 +8535,7 @@
       <c r="I118" s="16"/>
       <c r="J118" s="23"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119" s="16">
         <v>412</v>
       </c>
@@ -8549,7 +8561,7 @@
       <c r="I119" s="16"/>
       <c r="J119" s="23"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120" s="16">
         <v>413</v>
       </c>
@@ -8575,7 +8587,7 @@
       <c r="I120" s="16"/>
       <c r="J120" s="23"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121" s="16">
         <v>414</v>
       </c>
@@ -8601,7 +8613,7 @@
       <c r="I121" s="16"/>
       <c r="J121" s="23"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" s="16">
         <v>415</v>
       </c>
@@ -8627,7 +8639,7 @@
       <c r="I122" s="16"/>
       <c r="J122" s="23"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" s="16">
         <v>416</v>
       </c>
@@ -8653,7 +8665,7 @@
       <c r="I123" s="16"/>
       <c r="J123" s="23"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" s="16">
         <v>417</v>
       </c>
@@ -8679,7 +8691,7 @@
       <c r="I124" s="16"/>
       <c r="J124" s="23"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" s="16">
         <v>418</v>
       </c>
@@ -8707,7 +8719,7 @@
       </c>
       <c r="J125" s="23"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" s="16">
         <v>419</v>
       </c>
@@ -8733,7 +8745,7 @@
       <c r="I126" s="16"/>
       <c r="J126" s="23"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" s="16">
         <v>420</v>
       </c>
@@ -8759,7 +8771,7 @@
       <c r="I127" s="16"/>
       <c r="J127" s="23"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128" s="16">
         <v>421</v>
       </c>
@@ -8785,7 +8797,7 @@
       <c r="I128" s="16"/>
       <c r="J128" s="23"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" s="16">
         <v>422</v>
       </c>
@@ -8813,7 +8825,7 @@
       </c>
       <c r="J129" s="23"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130" s="16">
         <v>423</v>
       </c>
@@ -8839,7 +8851,7 @@
       <c r="I130" s="16"/>
       <c r="J130" s="23"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" s="16">
         <v>424</v>
       </c>
@@ -8867,7 +8879,7 @@
       <c r="I131" s="16"/>
       <c r="J131" s="23"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132" s="16">
         <v>425</v>
       </c>
@@ -8895,7 +8907,7 @@
       <c r="I132" s="16"/>
       <c r="J132" s="23"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133" s="16">
         <v>426</v>
       </c>
@@ -8923,7 +8935,7 @@
       <c r="I133" s="16"/>
       <c r="J133" s="23"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" s="16">
         <v>427</v>
       </c>
@@ -8949,7 +8961,7 @@
       <c r="I134" s="16"/>
       <c r="J134" s="23"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135" s="16">
         <v>428</v>
       </c>
@@ -8975,7 +8987,7 @@
       <c r="I135" s="16"/>
       <c r="J135" s="23"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136" s="16">
         <v>429</v>
       </c>
@@ -9001,7 +9013,7 @@
       <c r="I136" s="16"/>
       <c r="J136" s="23"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" s="16">
         <v>430</v>
       </c>
@@ -9027,7 +9039,7 @@
       <c r="I137" s="16"/>
       <c r="J137" s="23"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" s="16">
         <v>431</v>
       </c>
@@ -9053,7 +9065,7 @@
       <c r="I138" s="16"/>
       <c r="J138" s="23"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139" s="16">
         <v>432</v>
       </c>
@@ -9081,7 +9093,7 @@
       </c>
       <c r="J139" s="23"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140" s="16">
         <v>433</v>
       </c>
@@ -9107,7 +9119,7 @@
       <c r="I140" s="16"/>
       <c r="J140" s="23"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141" s="16">
         <v>434</v>
       </c>
@@ -9135,7 +9147,7 @@
       </c>
       <c r="J141" s="23"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142" s="16">
         <v>435</v>
       </c>
@@ -9161,7 +9173,7 @@
       <c r="I142" s="16"/>
       <c r="J142" s="23"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143" s="16">
         <v>436</v>
       </c>
@@ -9189,7 +9201,7 @@
       <c r="I143" s="16"/>
       <c r="J143" s="23"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144" s="16">
         <v>437</v>
       </c>
@@ -9217,7 +9229,7 @@
       </c>
       <c r="J144" s="23"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145" s="16">
         <v>438</v>
       </c>
@@ -9235,7 +9247,7 @@
       <c r="I145" s="16"/>
       <c r="J145" s="23"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146" s="16">
         <v>439</v>
       </c>
@@ -9261,7 +9273,7 @@
       <c r="I146" s="16"/>
       <c r="J146" s="23"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147" s="16">
         <v>440</v>
       </c>
@@ -9287,7 +9299,7 @@
       <c r="I147" s="16"/>
       <c r="J147" s="23"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148" s="16">
         <v>441</v>
       </c>
@@ -9313,7 +9325,7 @@
       <c r="I148" s="16"/>
       <c r="J148" s="23"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149" s="16">
         <v>442</v>
       </c>
@@ -9341,7 +9353,7 @@
       <c r="I149" s="16"/>
       <c r="J149" s="23"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150" s="16">
         <v>443</v>
       </c>
@@ -9371,7 +9383,7 @@
       </c>
       <c r="J150" s="23"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151" s="16">
         <v>444</v>
       </c>
@@ -9389,7 +9401,7 @@
       <c r="I151" s="16"/>
       <c r="J151" s="23"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152" s="16">
         <v>445</v>
       </c>
@@ -9417,7 +9429,7 @@
       <c r="I152" s="16"/>
       <c r="J152" s="23"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153" s="16">
         <v>446</v>
       </c>
@@ -9445,7 +9457,7 @@
       </c>
       <c r="J153" s="23"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154" s="16">
         <v>447</v>
       </c>
@@ -9473,7 +9485,7 @@
       </c>
       <c r="J154" s="23"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155" s="16">
         <v>448</v>
       </c>
@@ -9499,7 +9511,7 @@
       <c r="I155" s="16"/>
       <c r="J155" s="23"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156" s="16">
         <v>449</v>
       </c>
@@ -9529,7 +9541,7 @@
       </c>
       <c r="J156" s="23"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157" s="16">
         <v>450</v>
       </c>
@@ -9557,7 +9569,7 @@
       </c>
       <c r="J157" s="23"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158" s="16">
         <v>451</v>
       </c>
@@ -9583,7 +9595,7 @@
       <c r="I158" s="16"/>
       <c r="J158" s="23"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159" s="16">
         <v>452</v>
       </c>
@@ -9609,7 +9621,7 @@
       <c r="I159" s="16"/>
       <c r="J159" s="23"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160" s="16">
         <v>453</v>
       </c>
@@ -9635,7 +9647,7 @@
       <c r="I160" s="16"/>
       <c r="J160" s="23"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161" s="16">
         <v>454</v>
       </c>
@@ -9653,7 +9665,7 @@
       <c r="I161" s="16"/>
       <c r="J161" s="23"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162" s="16">
         <v>455</v>
       </c>
@@ -9675,7 +9687,7 @@
       <c r="I162" s="16"/>
       <c r="J162" s="23"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163" s="16">
         <v>456</v>
       </c>
@@ -9701,7 +9713,7 @@
       <c r="I163" s="16"/>
       <c r="J163" s="23"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164" s="16">
         <v>457</v>
       </c>
@@ -9729,7 +9741,7 @@
       </c>
       <c r="J164" s="23"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165" s="16">
         <v>458</v>
       </c>
@@ -9755,7 +9767,7 @@
       <c r="I165" s="16"/>
       <c r="J165" s="23"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166" s="16">
         <v>459</v>
       </c>
@@ -9783,7 +9795,7 @@
       </c>
       <c r="J166" s="23"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10">
       <c r="A167" s="16">
         <v>460</v>
       </c>
@@ -9811,7 +9823,7 @@
       </c>
       <c r="J167" s="23"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10">
       <c r="A168" s="16">
         <v>461</v>
       </c>
@@ -9839,7 +9851,7 @@
       </c>
       <c r="J168" s="23"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10">
       <c r="A169" s="16">
         <v>462</v>
       </c>
@@ -9865,7 +9877,7 @@
       <c r="I169" s="16"/>
       <c r="J169" s="23"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10">
       <c r="A170" s="16">
         <v>463</v>
       </c>
@@ -9893,7 +9905,7 @@
       </c>
       <c r="J170" s="23"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10">
       <c r="A171" s="16">
         <v>464</v>
       </c>
@@ -9919,7 +9931,7 @@
       <c r="I171" s="16"/>
       <c r="J171" s="23"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10">
       <c r="A172" s="16">
         <v>465</v>
       </c>
@@ -9945,7 +9957,7 @@
       <c r="I172" s="16"/>
       <c r="J172" s="23"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10">
       <c r="A173" s="16">
         <v>466</v>
       </c>
@@ -9973,7 +9985,7 @@
       </c>
       <c r="J173" s="23"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10">
       <c r="A174" s="16">
         <v>467</v>
       </c>
@@ -10001,7 +10013,7 @@
       </c>
       <c r="J174" s="23"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10">
       <c r="A175" s="16">
         <v>468</v>
       </c>
@@ -10029,7 +10041,7 @@
       <c r="I175" s="16"/>
       <c r="J175" s="23"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10">
       <c r="A176" s="16">
         <v>469</v>
       </c>
@@ -10047,7 +10059,7 @@
       <c r="I176" s="16"/>
       <c r="J176" s="23"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10">
       <c r="A177" s="16">
         <v>470</v>
       </c>
@@ -10065,7 +10077,7 @@
       <c r="I177" s="16"/>
       <c r="J177" s="23"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10">
       <c r="A178" s="16">
         <v>471</v>
       </c>
@@ -10083,7 +10095,7 @@
       <c r="I178" s="16"/>
       <c r="J178" s="23"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10">
       <c r="A179" s="16">
         <v>472</v>
       </c>
@@ -10101,7 +10113,7 @@
       <c r="I179" s="16"/>
       <c r="J179" s="23"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10">
       <c r="A180" s="16">
         <v>473</v>
       </c>
@@ -10119,7 +10131,7 @@
       <c r="I180" s="16"/>
       <c r="J180" s="23"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10">
       <c r="A181" s="16">
         <v>474</v>
       </c>
@@ -10137,7 +10149,7 @@
       <c r="I181" s="16"/>
       <c r="J181" s="23"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10">
       <c r="A182" s="16">
         <v>475</v>
       </c>
@@ -10155,7 +10167,7 @@
       <c r="I182" s="16"/>
       <c r="J182" s="23"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10">
       <c r="A183" s="16">
         <v>476</v>
       </c>
@@ -10173,7 +10185,7 @@
       <c r="I183" s="16"/>
       <c r="J183" s="23"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10">
       <c r="A184" s="16">
         <v>477</v>
       </c>
@@ -10191,7 +10203,7 @@
       <c r="I184" s="16"/>
       <c r="J184" s="23"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10">
       <c r="A185" s="16">
         <v>478</v>
       </c>
@@ -10209,7 +10221,7 @@
       <c r="I185" s="16"/>
       <c r="J185" s="23"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10">
       <c r="A186" s="16">
         <v>479</v>
       </c>
@@ -10227,7 +10239,7 @@
       <c r="I186" s="16"/>
       <c r="J186" s="23"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10">
       <c r="A187" s="16">
         <v>480</v>
       </c>
@@ -10245,7 +10257,7 @@
       <c r="I187" s="16"/>
       <c r="J187" s="23"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10">
       <c r="A188" s="16">
         <v>481</v>
       </c>
@@ -10263,7 +10275,7 @@
       <c r="I188" s="16"/>
       <c r="J188" s="23"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10">
       <c r="A189" s="16">
         <v>482</v>
       </c>
@@ -10281,7 +10293,7 @@
       <c r="I189" s="16"/>
       <c r="J189" s="23"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10">
       <c r="A190" s="16">
         <v>483</v>
       </c>
@@ -10299,7 +10311,7 @@
       <c r="I190" s="16"/>
       <c r="J190" s="23"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10">
       <c r="A191" s="16">
         <v>484</v>
       </c>
@@ -10317,7 +10329,7 @@
       <c r="I191" s="16"/>
       <c r="J191" s="23"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10">
       <c r="A192" s="16">
         <v>485</v>
       </c>
@@ -10335,7 +10347,7 @@
       <c r="I192" s="16"/>
       <c r="J192" s="23"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10">
       <c r="A193" s="16">
         <v>486</v>
       </c>
@@ -10353,7 +10365,7 @@
       <c r="I193" s="16"/>
       <c r="J193" s="23"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10">
       <c r="A194" s="16">
         <v>487</v>
       </c>
@@ -10371,7 +10383,7 @@
       <c r="I194" s="16"/>
       <c r="J194" s="23"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10">
       <c r="A195" s="16">
         <v>488</v>
       </c>
@@ -10389,7 +10401,7 @@
       <c r="I195" s="16"/>
       <c r="J195" s="23"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10">
       <c r="A196" s="16">
         <v>489</v>
       </c>
@@ -10407,7 +10419,7 @@
       <c r="I196" s="16"/>
       <c r="J196" s="23"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10">
       <c r="A197" s="16">
         <v>490</v>
       </c>
@@ -10425,7 +10437,7 @@
       <c r="I197" s="16"/>
       <c r="J197" s="23"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10">
       <c r="A198" s="16">
         <v>491</v>
       </c>
@@ -10443,7 +10455,7 @@
       <c r="I198" s="16"/>
       <c r="J198" s="23"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10">
       <c r="A199" s="16">
         <v>492</v>
       </c>
@@ -10461,7 +10473,7 @@
       <c r="I199" s="16"/>
       <c r="J199" s="23"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10">
       <c r="A200" s="16">
         <v>493</v>
       </c>
@@ -10479,7 +10491,7 @@
       <c r="I200" s="16"/>
       <c r="J200" s="23"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10">
       <c r="A201" s="16">
         <v>494</v>
       </c>
@@ -10497,7 +10509,7 @@
       <c r="I201" s="16"/>
       <c r="J201" s="23"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10">
       <c r="A202" s="16">
         <v>495</v>
       </c>
@@ -10515,7 +10527,7 @@
       <c r="I202" s="16"/>
       <c r="J202" s="23"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10">
       <c r="A203" s="16">
         <v>496</v>
       </c>
@@ -10533,7 +10545,7 @@
       <c r="I203" s="16"/>
       <c r="J203" s="23"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10">
       <c r="A204" s="16">
         <v>497</v>
       </c>
@@ -10553,7 +10565,7 @@
       <c r="I204" s="32"/>
       <c r="J204" s="23"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10">
       <c r="A205" s="16">
         <v>498</v>
       </c>
@@ -10579,7 +10591,7 @@
       <c r="I205" s="16"/>
       <c r="J205" s="23"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10">
       <c r="A206" s="16">
         <v>499</v>
       </c>
@@ -10605,7 +10617,7 @@
       <c r="I206" s="16"/>
       <c r="J206" s="23"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10">
       <c r="A207" s="16">
         <v>500</v>
       </c>
@@ -10631,7 +10643,7 @@
       <c r="I207" s="16"/>
       <c r="J207" s="23"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10">
       <c r="A208" s="16">
         <v>501</v>
       </c>
@@ -10657,7 +10669,7 @@
       <c r="I208" s="16"/>
       <c r="J208" s="23"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10">
       <c r="A209" s="16">
         <v>502</v>
       </c>
@@ -10683,7 +10695,7 @@
       <c r="I209" s="16"/>
       <c r="J209" s="23"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10">
       <c r="A210" s="16">
         <v>503</v>
       </c>
@@ -10709,7 +10721,7 @@
       <c r="I210" s="16"/>
       <c r="J210" s="23"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10">
       <c r="A211" s="16">
         <v>504</v>
       </c>
@@ -10735,7 +10747,7 @@
       <c r="I211" s="16"/>
       <c r="J211" s="23"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10">
       <c r="A212" s="16">
         <v>505</v>
       </c>
@@ -10761,7 +10773,7 @@
       <c r="I212" s="16"/>
       <c r="J212" s="23"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10">
       <c r="A213" s="16">
         <v>506</v>
       </c>
@@ -10787,7 +10799,7 @@
       <c r="I213" s="16"/>
       <c r="J213" s="23"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10">
       <c r="A214" s="16">
         <v>507</v>
       </c>
@@ -10813,7 +10825,7 @@
       <c r="I214" s="16"/>
       <c r="J214" s="23"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10">
       <c r="A215" s="16">
         <v>508</v>
       </c>
@@ -10839,7 +10851,7 @@
       <c r="I215" s="16"/>
       <c r="J215" s="23"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10">
       <c r="A216" s="16">
         <v>509</v>
       </c>
@@ -10865,7 +10877,7 @@
       <c r="I216" s="16"/>
       <c r="J216" s="23"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10">
       <c r="A217" s="16">
         <v>510</v>
       </c>
@@ -10891,7 +10903,7 @@
       <c r="I217" s="16"/>
       <c r="J217" s="23"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10">
       <c r="A218" s="16">
         <v>511</v>
       </c>
@@ -10917,7 +10929,7 @@
       <c r="I218" s="16"/>
       <c r="J218" s="23"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10">
       <c r="A219" s="16">
         <v>512</v>
       </c>
@@ -10943,7 +10955,7 @@
       <c r="I219" s="16"/>
       <c r="J219" s="23"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10">
       <c r="A220" s="16">
         <v>513</v>
       </c>
@@ -10969,7 +10981,7 @@
       <c r="I220" s="16"/>
       <c r="J220" s="23"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10">
       <c r="A221" s="16">
         <v>514</v>
       </c>
@@ -10995,7 +11007,7 @@
       <c r="I221" s="16"/>
       <c r="J221" s="23"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10">
       <c r="A222" s="16">
         <v>515</v>
       </c>
@@ -11021,7 +11033,7 @@
       <c r="I222" s="16"/>
       <c r="J222" s="23"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10">
       <c r="A223" s="16">
         <v>516</v>
       </c>
@@ -11047,7 +11059,7 @@
       <c r="I223" s="16"/>
       <c r="J223" s="23"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10">
       <c r="A224" s="16">
         <v>517</v>
       </c>
@@ -11073,7 +11085,7 @@
       <c r="I224" s="16"/>
       <c r="J224" s="23"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10">
       <c r="A225" s="16">
         <v>518</v>
       </c>
@@ -11099,7 +11111,7 @@
       <c r="I225" s="16"/>
       <c r="J225" s="23"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10">
       <c r="A226" s="16">
         <v>519</v>
       </c>
@@ -11125,7 +11137,7 @@
       <c r="I226" s="16"/>
       <c r="J226" s="23"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10">
       <c r="A227" s="16">
         <v>520</v>
       </c>
@@ -11143,7 +11155,7 @@
       <c r="I227" s="16"/>
       <c r="J227" s="23"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10">
       <c r="A228" s="16">
         <v>521</v>
       </c>
@@ -11169,7 +11181,7 @@
       <c r="I228" s="16"/>
       <c r="J228" s="23"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10">
       <c r="A229" s="16">
         <v>522</v>
       </c>
@@ -11195,7 +11207,7 @@
       <c r="I229" s="16"/>
       <c r="J229" s="23"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10">
       <c r="A230" s="16">
         <v>523</v>
       </c>
@@ -11221,7 +11233,7 @@
       <c r="I230" s="16"/>
       <c r="J230" s="23"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10">
       <c r="A231" s="16">
         <v>524</v>
       </c>
@@ -11247,7 +11259,7 @@
       <c r="I231" s="16"/>
       <c r="J231" s="23"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10">
       <c r="A232" s="16">
         <v>525</v>
       </c>
@@ -11257,15 +11269,23 @@
       <c r="C232" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="D232" s="16"/>
+      <c r="D232" s="16" t="s">
+        <v>1135</v>
+      </c>
       <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="16"/>
+      <c r="F232" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G232" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H232" s="16">
+        <v>0</v>
+      </c>
       <c r="I232" s="16"/>
       <c r="J232" s="23"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10">
       <c r="A233" s="16">
         <v>526</v>
       </c>
@@ -11283,7 +11303,7 @@
       <c r="I233" s="16"/>
       <c r="J233" s="23"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10">
       <c r="A234" s="16">
         <v>527</v>
       </c>
@@ -11301,7 +11321,7 @@
       <c r="I234" s="16"/>
       <c r="J234" s="23"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10">
       <c r="A235" s="16">
         <v>528</v>
       </c>
@@ -11319,7 +11339,7 @@
       <c r="I235" s="16"/>
       <c r="J235" s="23"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10">
       <c r="A236" s="16">
         <v>529</v>
       </c>
@@ -11337,7 +11357,7 @@
       <c r="I236" s="16"/>
       <c r="J236" s="23"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10">
       <c r="A237" s="16">
         <v>530</v>
       </c>
@@ -11355,7 +11375,7 @@
       <c r="I237" s="16"/>
       <c r="J237" s="23"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10">
       <c r="A238" s="16">
         <v>531</v>
       </c>
@@ -11373,7 +11393,7 @@
       <c r="I238" s="16"/>
       <c r="J238" s="23"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10">
       <c r="A239" s="16">
         <v>532</v>
       </c>
@@ -11391,7 +11411,7 @@
       <c r="I239" s="16"/>
       <c r="J239" s="23"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10">
       <c r="A240" s="16">
         <v>533</v>
       </c>
@@ -11409,7 +11429,7 @@
       <c r="I240" s="16"/>
       <c r="J240" s="23"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10">
       <c r="A241" s="16">
         <v>534</v>
       </c>
@@ -11427,7 +11447,7 @@
       <c r="I241" s="16"/>
       <c r="J241" s="23"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10">
       <c r="A242" s="16">
         <v>535</v>
       </c>
@@ -11445,7 +11465,7 @@
       <c r="I242" s="16"/>
       <c r="J242" s="23"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10">
       <c r="A243" s="16">
         <v>536</v>
       </c>
@@ -11463,7 +11483,7 @@
       <c r="I243" s="16"/>
       <c r="J243" s="23"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10">
       <c r="A244" s="16">
         <v>537</v>
       </c>
@@ -11481,7 +11501,7 @@
       <c r="I244" s="16"/>
       <c r="J244" s="23"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10">
       <c r="A245" s="16">
         <v>538</v>
       </c>
@@ -11499,7 +11519,7 @@
       <c r="I245" s="16"/>
       <c r="J245" s="23"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10">
       <c r="A246" s="16">
         <v>539</v>
       </c>
@@ -11517,7 +11537,7 @@
       <c r="I246" s="16"/>
       <c r="J246" s="23"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10">
       <c r="A247" s="16">
         <v>540</v>
       </c>
@@ -11535,7 +11555,7 @@
       <c r="I247" s="16"/>
       <c r="J247" s="23"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10">
       <c r="A248" s="16">
         <v>541</v>
       </c>
@@ -11553,7 +11573,7 @@
       <c r="I248" s="16"/>
       <c r="J248" s="23"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10">
       <c r="A249" s="16">
         <v>542</v>
       </c>
@@ -11571,7 +11591,7 @@
       <c r="I249" s="16"/>
       <c r="J249" s="23"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10">
       <c r="A250" s="16">
         <v>543</v>
       </c>
@@ -11589,7 +11609,7 @@
       <c r="I250" s="16"/>
       <c r="J250" s="23"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10">
       <c r="A251" s="16">
         <v>544</v>
       </c>
@@ -11607,7 +11627,7 @@
       <c r="I251" s="16"/>
       <c r="J251" s="23"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10">
       <c r="A252" s="16">
         <v>545</v>
       </c>
@@ -11625,7 +11645,7 @@
       <c r="I252" s="16"/>
       <c r="J252" s="23"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10">
       <c r="A253" s="16">
         <v>546</v>
       </c>
@@ -11643,7 +11663,7 @@
       <c r="I253" s="16"/>
       <c r="J253" s="23"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10">
       <c r="A254" s="16">
         <v>547</v>
       </c>
@@ -11661,7 +11681,7 @@
       <c r="I254" s="16"/>
       <c r="J254" s="23"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10">
       <c r="A255" s="16">
         <v>548</v>
       </c>
@@ -11679,7 +11699,7 @@
       <c r="I255" s="16"/>
       <c r="J255" s="23"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10">
       <c r="A256" s="16">
         <v>549</v>
       </c>
@@ -11697,7 +11717,7 @@
       <c r="I256" s="16"/>
       <c r="J256" s="23"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10">
       <c r="A257" s="16">
         <v>550</v>
       </c>
@@ -11715,7 +11735,7 @@
       <c r="I257" s="16"/>
       <c r="J257" s="23"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10">
       <c r="A258" s="16">
         <v>551</v>
       </c>
@@ -11735,7 +11755,7 @@
       <c r="I258" s="32"/>
       <c r="J258" s="23"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10">
       <c r="A259" s="16">
         <v>552</v>
       </c>
@@ -11755,7 +11775,7 @@
       <c r="I259" s="32"/>
       <c r="J259" s="23"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10">
       <c r="A260" s="16">
         <v>553</v>
       </c>
@@ -11775,7 +11795,7 @@
       <c r="I260" s="32"/>
       <c r="J260" s="23"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10">
       <c r="A261" s="16">
         <v>554</v>
       </c>
@@ -11793,7 +11813,7 @@
       <c r="I261" s="16"/>
       <c r="J261" s="23"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10">
       <c r="A262" s="16">
         <v>555</v>
       </c>
@@ -11811,7 +11831,7 @@
       <c r="I262" s="16"/>
       <c r="J262" s="23"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10">
       <c r="A263" s="16">
         <v>556</v>
       </c>
@@ -11829,7 +11849,7 @@
       <c r="I263" s="16"/>
       <c r="J263" s="23"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10">
       <c r="A264" s="16">
         <v>557</v>
       </c>
@@ -11847,7 +11867,7 @@
       <c r="I264" s="16"/>
       <c r="J264" s="23"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10">
       <c r="A265" s="16">
         <v>558</v>
       </c>
@@ -11865,7 +11885,7 @@
       <c r="I265" s="16"/>
       <c r="J265" s="23"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10">
       <c r="A266" s="16">
         <v>559</v>
       </c>
@@ -11883,7 +11903,7 @@
       <c r="I266" s="16"/>
       <c r="J266" s="23"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10">
       <c r="A267" s="16">
         <v>560</v>
       </c>
@@ -11901,7 +11921,7 @@
       <c r="I267" s="16"/>
       <c r="J267" s="23"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10">
       <c r="A268" s="16">
         <v>561</v>
       </c>
@@ -11919,7 +11939,7 @@
       <c r="I268" s="16"/>
       <c r="J268" s="23"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10">
       <c r="A269" s="16">
         <v>562</v>
       </c>
@@ -11937,7 +11957,7 @@
       <c r="I269" s="16"/>
       <c r="J269" s="23"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10">
       <c r="A270" s="16">
         <v>563</v>
       </c>
@@ -11955,7 +11975,7 @@
       <c r="I270" s="16"/>
       <c r="J270" s="23"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10">
       <c r="A271" s="16">
         <v>564</v>
       </c>
@@ -11973,7 +11993,7 @@
       <c r="I271" s="16"/>
       <c r="J271" s="23"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10">
       <c r="A272" s="16">
         <v>565</v>
       </c>
@@ -11991,7 +12011,7 @@
       <c r="I272" s="16"/>
       <c r="J272" s="23"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273" s="16">
         <v>566</v>
       </c>
@@ -12009,7 +12029,7 @@
       <c r="I273" s="16"/>
       <c r="J273" s="23"/>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10">
       <c r="A274" s="16">
         <v>567</v>
       </c>
@@ -12027,7 +12047,7 @@
       <c r="I274" s="16"/>
       <c r="J274" s="23"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10">
       <c r="A275" s="16">
         <v>568</v>
       </c>
@@ -12045,7 +12065,7 @@
       <c r="I275" s="16"/>
       <c r="J275" s="23"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276" s="16">
         <v>569</v>
       </c>
@@ -12063,7 +12083,7 @@
       <c r="I276" s="16"/>
       <c r="J276" s="23"/>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10">
       <c r="A277" s="16">
         <v>570</v>
       </c>
@@ -12081,7 +12101,7 @@
       <c r="I277" s="16"/>
       <c r="J277" s="23"/>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="A278" s="16">
         <v>571</v>
       </c>
@@ -12099,7 +12119,7 @@
       <c r="I278" s="16"/>
       <c r="J278" s="23"/>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="A279" s="16">
         <v>572</v>
       </c>
@@ -12117,7 +12137,7 @@
       <c r="I279" s="16"/>
       <c r="J279" s="23"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10">
       <c r="A280" s="16">
         <v>573</v>
       </c>
@@ -12135,7 +12155,7 @@
       <c r="I280" s="16"/>
       <c r="J280" s="23"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10">
       <c r="A281" s="16">
         <v>574</v>
       </c>
@@ -12153,7 +12173,7 @@
       <c r="I281" s="16"/>
       <c r="J281" s="23"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282" s="16">
         <v>575</v>
       </c>
@@ -12171,7 +12191,7 @@
       <c r="I282" s="16"/>
       <c r="J282" s="23"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283" s="16">
         <v>576</v>
       </c>
@@ -12189,7 +12209,7 @@
       <c r="I283" s="16"/>
       <c r="J283" s="23"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284" s="16">
         <v>577</v>
       </c>
@@ -12207,7 +12227,7 @@
       <c r="I284" s="16"/>
       <c r="J284" s="23"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285" s="16">
         <v>578</v>
       </c>
@@ -12225,7 +12245,7 @@
       <c r="I285" s="16"/>
       <c r="J285" s="23"/>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286" s="16">
         <v>579</v>
       </c>
@@ -12243,7 +12263,7 @@
       <c r="I286" s="16"/>
       <c r="J286" s="23"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287" s="16">
         <v>580</v>
       </c>
@@ -12261,7 +12281,7 @@
       <c r="I287" s="16"/>
       <c r="J287" s="23"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288" s="16">
         <v>581</v>
       </c>
@@ -12279,7 +12299,7 @@
       <c r="I288" s="16"/>
       <c r="J288" s="23"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10">
       <c r="A289" s="16">
         <v>582</v>
       </c>
@@ -12297,7 +12317,7 @@
       <c r="I289" s="16"/>
       <c r="J289" s="23"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10">
       <c r="A290" s="16">
         <v>583</v>
       </c>
@@ -12315,7 +12335,7 @@
       <c r="I290" s="16"/>
       <c r="J290" s="23"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10">
       <c r="A291" s="16">
         <v>584</v>
       </c>
@@ -12333,7 +12353,7 @@
       <c r="I291" s="16"/>
       <c r="J291" s="23"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10">
       <c r="A292" s="16">
         <v>585</v>
       </c>
@@ -12351,7 +12371,7 @@
       <c r="I292" s="16"/>
       <c r="J292" s="23"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10">
       <c r="A293" s="16">
         <v>586</v>
       </c>
@@ -12369,7 +12389,7 @@
       <c r="I293" s="16"/>
       <c r="J293" s="23"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10">
       <c r="A294" s="16">
         <v>587</v>
       </c>
@@ -12387,7 +12407,7 @@
       <c r="I294" s="16"/>
       <c r="J294" s="23"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10">
       <c r="A295" s="16">
         <v>588</v>
       </c>
@@ -12405,7 +12425,7 @@
       <c r="I295" s="16"/>
       <c r="J295" s="23"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10">
       <c r="A296" s="16">
         <v>589</v>
       </c>
@@ -12423,7 +12443,7 @@
       <c r="I296" s="16"/>
       <c r="J296" s="23"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10">
       <c r="A297" s="16">
         <v>590</v>
       </c>
@@ -12441,7 +12461,7 @@
       <c r="I297" s="16"/>
       <c r="J297" s="23"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10">
       <c r="A298" s="16">
         <v>591</v>
       </c>
@@ -12459,7 +12479,7 @@
       <c r="I298" s="16"/>
       <c r="J298" s="23"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10">
       <c r="A299" s="16">
         <v>592</v>
       </c>
@@ -12477,7 +12497,7 @@
       <c r="I299" s="16"/>
       <c r="J299" s="23"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10">
       <c r="A300" s="16">
         <v>593</v>
       </c>
@@ -12495,7 +12515,7 @@
       <c r="I300" s="16"/>
       <c r="J300" s="23"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10">
       <c r="A301" s="16">
         <v>594</v>
       </c>
@@ -12513,7 +12533,7 @@
       <c r="I301" s="16"/>
       <c r="J301" s="23"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10">
       <c r="A302" s="16">
         <v>595</v>
       </c>
@@ -12531,7 +12551,7 @@
       <c r="I302" s="16"/>
       <c r="J302" s="23"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10">
       <c r="A303" s="16">
         <v>596</v>
       </c>
@@ -12549,7 +12569,7 @@
       <c r="I303" s="16"/>
       <c r="J303" s="23"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10">
       <c r="A304" s="16">
         <v>597</v>
       </c>
@@ -12567,7 +12587,7 @@
       <c r="I304" s="16"/>
       <c r="J304" s="23"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10">
       <c r="A305" s="16">
         <v>598</v>
       </c>
@@ -12585,7 +12605,7 @@
       <c r="I305" s="16"/>
       <c r="J305" s="23"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10">
       <c r="A306" s="16">
         <v>599</v>
       </c>
@@ -12603,7 +12623,7 @@
       <c r="I306" s="16"/>
       <c r="J306" s="23"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10">
       <c r="A307" s="16"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25" t="s">
@@ -12617,7 +12637,7 @@
       <c r="I307" s="16"/>
       <c r="J307" s="23"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10">
       <c r="A308" s="16"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25" t="s">
@@ -12631,7 +12651,7 @@
       <c r="I308" s="16"/>
       <c r="J308" s="23"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10">
       <c r="A309" s="16"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25" t="s">
@@ -12645,7 +12665,7 @@
       <c r="I309" s="16"/>
       <c r="J309" s="23"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10">
       <c r="A310" s="16"/>
       <c r="B310" s="25"/>
       <c r="C310" s="25" t="s">
@@ -12659,28 +12679,28 @@
       <c r="I310" s="16"/>
       <c r="J310" s="23"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10">
       <c r="J311" s="6"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10">
       <c r="J312" s="6"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10">
       <c r="J313" s="6"/>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10">
       <c r="J314" s="6"/>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10">
       <c r="J315" s="6"/>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10">
       <c r="J316" s="6"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10">
       <c r="J317" s="6"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10">
       <c r="J318" s="6"/>
     </row>
   </sheetData>
@@ -12708,7 +12728,7 @@
       <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" style="16" customWidth="1"/>
@@ -12720,7 +12740,7 @@
     <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>427</v>
       </c>
@@ -12752,7 +12772,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -12776,7 +12796,7 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="12" customFormat="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -12802,7 +12822,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="12" customFormat="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -12828,7 +12848,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="12" customFormat="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -12850,7 +12870,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="32.4">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -12876,7 +12896,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -12900,7 +12920,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -12916,7 +12936,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -12940,7 +12960,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -12964,7 +12984,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -12986,7 +13006,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -13010,7 +13030,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -13034,7 +13054,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -13050,7 +13070,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -13076,7 +13096,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -13102,7 +13122,7 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -13126,7 +13146,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="32.4">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -13152,7 +13172,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -13178,7 +13198,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -13204,7 +13224,7 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -13230,7 +13250,7 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -13256,7 +13276,7 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -13282,7 +13302,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -13308,7 +13328,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -13334,7 +13354,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -13360,7 +13380,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -13386,7 +13406,7 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -13412,7 +13432,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -13438,7 +13458,7 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -13464,7 +13484,7 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -13490,7 +13510,7 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -13514,7 +13534,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -13540,7 +13560,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -13566,7 +13586,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -13590,7 +13610,7 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -13614,7 +13634,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -13640,7 +13660,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -13664,7 +13684,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -13690,7 +13710,7 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -13716,7 +13736,7 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -13742,7 +13762,7 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -13768,7 +13788,7 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -13794,7 +13814,7 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -13818,7 +13838,7 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -13842,7 +13862,7 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -13866,7 +13886,7 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -13890,7 +13910,7 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -13916,7 +13936,7 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -13940,7 +13960,7 @@
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -13966,7 +13986,7 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -13992,7 +14012,7 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -14018,7 +14038,7 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -14044,7 +14064,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -14068,7 +14088,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -14094,7 +14114,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="8">
         <v>55</v>
       </c>
@@ -14120,7 +14140,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -14146,7 +14166,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="8">
         <v>57</v>
       </c>
@@ -14170,7 +14190,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -14194,7 +14214,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="8">
         <v>59</v>
       </c>
@@ -14218,7 +14238,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -14242,7 +14262,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" s="8">
         <v>61</v>
       </c>
@@ -14266,7 +14286,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -14292,7 +14312,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" s="8">
         <v>63</v>
       </c>
@@ -14316,7 +14336,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -14342,7 +14362,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" s="8">
         <v>65</v>
       </c>
@@ -14366,7 +14386,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -14390,7 +14410,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="8">
         <v>67</v>
       </c>
@@ -14416,7 +14436,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -14442,7 +14462,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="8">
         <v>69</v>
       </c>
@@ -14468,7 +14488,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -14494,7 +14514,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="8">
         <v>71</v>
       </c>
@@ -14520,7 +14540,7 @@
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -14544,7 +14564,7 @@
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" s="8">
         <v>73</v>
       </c>
@@ -14568,7 +14588,7 @@
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -14592,7 +14612,7 @@
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76" s="8">
         <v>75</v>
       </c>
@@ -14618,7 +14638,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -14642,7 +14662,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" s="8">
         <v>77</v>
       </c>
@@ -14666,7 +14686,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -14690,7 +14710,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -14714,7 +14734,7 @@
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -14738,7 +14758,7 @@
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" s="8">
         <v>81</v>
       </c>
@@ -14764,7 +14784,7 @@
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -14788,7 +14808,7 @@
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" s="8">
         <v>83</v>
       </c>
@@ -14812,7 +14832,7 @@
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" s="8">
         <v>84</v>
       </c>
@@ -14836,7 +14856,7 @@
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" s="8">
         <v>85</v>
       </c>
@@ -14860,7 +14880,7 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -14884,7 +14904,7 @@
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88" s="8">
         <v>87</v>
       </c>
@@ -14908,7 +14928,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -14932,7 +14952,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" s="8">
         <v>89</v>
       </c>
@@ -14956,7 +14976,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -14980,7 +15000,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -15004,7 +15024,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -15030,7 +15050,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -15054,7 +15074,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -15078,7 +15098,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -15102,7 +15122,7 @@
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -15128,7 +15148,7 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -15152,7 +15172,7 @@
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -15178,7 +15198,7 @@
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -15204,7 +15224,7 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -15230,7 +15250,7 @@
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -15254,7 +15274,7 @@
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103" s="8">
         <v>102</v>
       </c>
@@ -15278,7 +15298,7 @@
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104" s="8">
         <v>103</v>
       </c>
@@ -15302,7 +15322,7 @@
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105" s="8">
         <v>104</v>
       </c>
@@ -15326,7 +15346,7 @@
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106" s="8">
         <v>105</v>
       </c>
@@ -15350,7 +15370,7 @@
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107" s="8">
         <v>106</v>
       </c>
@@ -15376,7 +15396,7 @@
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108" s="8">
         <v>107</v>
       </c>
@@ -15400,7 +15420,7 @@
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" s="8">
         <v>108</v>
       </c>
@@ -15426,7 +15446,7 @@
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110" s="8">
         <v>109</v>
       </c>
@@ -15450,7 +15470,7 @@
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111" s="8">
         <v>110</v>
       </c>
@@ -15474,7 +15494,7 @@
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112" s="8">
         <v>111</v>
       </c>
@@ -15500,7 +15520,7 @@
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113" s="8">
         <v>112</v>
       </c>
@@ -15516,7 +15536,7 @@
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114" s="8">
         <v>113</v>
       </c>
@@ -15540,7 +15560,7 @@
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115" s="8">
         <v>114</v>
       </c>
@@ -15564,7 +15584,7 @@
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116" s="8">
         <v>115</v>
       </c>
@@ -15588,7 +15608,7 @@
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117" s="8">
         <v>116</v>
       </c>
@@ -15612,7 +15632,7 @@
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118" s="8">
         <v>117</v>
       </c>
@@ -15638,7 +15658,7 @@
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119" s="8">
         <v>118</v>
       </c>
@@ -15662,7 +15682,7 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120" s="8">
         <v>119</v>
       </c>
@@ -15688,7 +15708,7 @@
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121" s="8">
         <v>120</v>
       </c>
@@ -15714,7 +15734,7 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" s="8">
         <v>121</v>
       </c>
@@ -15738,7 +15758,7 @@
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" s="8">
         <v>122</v>
       </c>
@@ -15764,7 +15784,7 @@
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" s="8">
         <v>123</v>
       </c>
@@ -15790,7 +15810,7 @@
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" s="8">
         <v>124</v>
       </c>
@@ -15814,7 +15834,7 @@
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" s="8">
         <v>125</v>
       </c>
@@ -15838,7 +15858,7 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" s="8">
         <v>126</v>
       </c>
@@ -15862,7 +15882,7 @@
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128" s="8">
         <v>127</v>
       </c>
@@ -15886,7 +15906,7 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" s="8">
         <v>128</v>
       </c>
@@ -15912,7 +15932,7 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130" s="8">
         <v>129</v>
       </c>
@@ -15936,7 +15956,7 @@
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -15962,7 +15982,7 @@
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132" s="8">
         <v>131</v>
       </c>
@@ -15988,7 +16008,7 @@
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133" s="8">
         <v>132</v>
       </c>
@@ -16014,7 +16034,7 @@
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" s="8">
         <v>133</v>
       </c>
@@ -16038,7 +16058,7 @@
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135" s="8">
         <v>134</v>
       </c>
@@ -16064,7 +16084,7 @@
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136" s="8">
         <v>135</v>
       </c>
@@ -16088,7 +16108,7 @@
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" s="8">
         <v>136</v>
       </c>
@@ -16112,7 +16132,7 @@
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" s="8">
         <v>137</v>
       </c>
@@ -16138,7 +16158,7 @@
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139" s="8">
         <v>138</v>
       </c>
@@ -16164,7 +16184,7 @@
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140" s="8">
         <v>139</v>
       </c>
@@ -16188,7 +16208,7 @@
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141" s="8">
         <v>140</v>
       </c>
@@ -16212,7 +16232,7 @@
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142" s="8">
         <v>141</v>
       </c>
@@ -16236,7 +16256,7 @@
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143" s="8">
         <v>142</v>
       </c>
@@ -16260,7 +16280,7 @@
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144" s="8">
         <v>143</v>
       </c>
@@ -16284,7 +16304,7 @@
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145" s="8">
         <v>144</v>
       </c>
@@ -16308,7 +16328,7 @@
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146" s="8">
         <v>145</v>
       </c>
@@ -16332,7 +16352,7 @@
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147" s="8">
         <v>146</v>
       </c>
@@ -16356,7 +16376,7 @@
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148" s="8">
         <v>147</v>
       </c>
@@ -16380,7 +16400,7 @@
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149" s="8">
         <v>148</v>
       </c>
@@ -16404,7 +16424,7 @@
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150" s="8">
         <v>149</v>
       </c>
@@ -16428,7 +16448,7 @@
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151" s="8">
         <v>150</v>
       </c>
@@ -16452,7 +16472,7 @@
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152" s="8">
         <v>151</v>
       </c>
@@ -16476,7 +16496,7 @@
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153" s="8">
         <v>152</v>
       </c>
@@ -16500,7 +16520,7 @@
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154" s="8">
         <v>153</v>
       </c>
@@ -16524,7 +16544,7 @@
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155" s="8">
         <v>154</v>
       </c>
@@ -16548,7 +16568,7 @@
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156" s="8">
         <v>155</v>
       </c>
@@ -16572,7 +16592,7 @@
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157" s="8">
         <v>156</v>
       </c>
@@ -16596,7 +16616,7 @@
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158" s="8">
         <v>157</v>
       </c>
@@ -16620,7 +16640,7 @@
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159" s="8">
         <v>158</v>
       </c>
@@ -16644,7 +16664,7 @@
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160" s="8">
         <v>159</v>
       </c>
@@ -16668,7 +16688,7 @@
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161" s="8">
         <v>160</v>
       </c>
@@ -16692,7 +16712,7 @@
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162" s="8">
         <v>161</v>
       </c>
@@ -16708,7 +16728,7 @@
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163" s="8">
         <v>162</v>
       </c>
@@ -16732,7 +16752,7 @@
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164" s="8">
         <v>163</v>
       </c>
@@ -16756,7 +16776,7 @@
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165" s="8">
         <v>164</v>
       </c>
@@ -16780,7 +16800,7 @@
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166" s="8">
         <v>165</v>
       </c>
